--- a/Web Scraping/Action_data.xlsx
+++ b/Web Scraping/Action_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
@@ -614,29 +614,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladenoten Special Edition</t>
+          <t>Choco Moment chocoladepinda's</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianen</t>
+          <t>260 gram</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,24 +646,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>€ 18,60/kg</t>
+          <t>€ 7,23/kg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladepinda's</t>
+          <t>Choco Moment chocoladerozijnen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,34 +683,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>€ 7,23/kg</t>
+          <t>€ 6,73/kg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladerozijnen</t>
+          <t>Snacks of the World pistache mix</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>260 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,34 +720,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>€ 6,73/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Snacks of the World sriracha pindabollen Spicy</t>
+          <t>Snacks of the World snackmix</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>225 gram</t>
+          <t>225 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,24 +757,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>€ 7,96/kg</t>
+          <t>€ 8,36/kg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -799,29 +799,29 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Snacks of the World cashewnoten</t>
+          <t>Snacks of the World ongezouten cashewnoten XL-pack</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>500 gram</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -831,34 +831,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 9,90/kg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Snacks of the World noten en rozijnen</t>
+          <t>Snacks of the World rijstzoutjes mix Kyoto Style</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -868,34 +868,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>€ 5,95/kg</t>
+          <t>€ 6,60/kg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Snacks of the World snackmix</t>
+          <t>Snacks of the World sriracha pindabollen Spicy</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>225 gram | diverse varianten</t>
+          <t>225 gram</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,34 +905,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>€ 8,36/kg</t>
+          <t>€ 7,96/kg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Snacks of the World cashewnoten gezouten</t>
+          <t>Snacks of the World pecan-notenmix</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>500 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -942,34 +942,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>€ 9,90/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -979,34 +979,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 9,45/kg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Snacks of the World rijstzoutjes mix Kyoto Style</t>
+          <t>Snacks of the World macadamia notenmix</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,34 +1016,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>€ 6,60/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Snacks of the World pecan-notenmix</t>
+          <t>Snacks of the World cashewnoten gezouten</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>500 gram</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,24 +1053,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 9,90/kg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
+          <t>Snacks of the World honing cashew- en pindamix</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1095,29 +1095,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Snacks of the World pistache mix</t>
+          <t>Snacks of the World ongezouten cashewnoten</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1127,34 +1127,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 11,67/kg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Snacks of the World macadamia notenmix</t>
+          <t>Snacks of the World gezouten pinda's</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>375 gram</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,34 +1164,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 4,77/kg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Snacks of the World honing cashew- en pindamix</t>
+          <t>Snacks of the World cashewnoten</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1201,34 +1201,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 11,67/kg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Snacks of the World gezouten pinda's</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>375 gram</t>
+          <t>400 gram</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1238,34 +1238,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>€ 4,77/kg</t>
+          <t>€ 6,23/kg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400 gram</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1275,34 +1275,34 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>€ 6,23/kg</t>
+          <t>€ 7,40/kg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
+          <t>Snacks of the World Chilli Crackers Spicy</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1312,34 +1312,34 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>€ 7,40/kg</t>
+          <t>€ 9,67/kg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Snacks of the World Chilli Crackers Spicy</t>
+          <t>Snacks of the World wasabistijl pinda's</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1349,34 +1349,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>€ 9,67/kg</t>
+          <t>€ 7,96/kg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Snacks of the World wasabistijl pinda's</t>
+          <t>Snacks of the World noten en rozijnen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1386,24 +1386,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>€ 7,96/kg</t>
+          <t>€ 7,20/kg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Natural Happiness proteïnemix</t>
+          <t>Natural Happiness noten &amp; bananen mix</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1428,29 +1428,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Natural Happiness noten &amp; bananen mix</t>
+          <t>Natural Happiness noten &amp; fruit mix</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1460,34 +1460,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>€ 9,97/kg</t>
+          <t>€ 11,93/kg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Natural Happiness noten &amp; fruit mix</t>
+          <t>Natural Happiness proteïnemix</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 9,97/kg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
@@ -1539,19 +1539,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten XL-pack</t>
+          <t>Natural Happiness amandelen XL-pack</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1571,34 +1571,34 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>€ 10,97/kg</t>
+          <t>€ 9,83/kg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Natural Happiness notenmix Raw</t>
+          <t>Natural Happiness walnoten XL-pack</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1608,34 +1608,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 10,97/kg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Natural Happiness pijnboompitten</t>
+          <t>Natural Happiness notenmix Raw</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>50 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1645,34 +1645,34 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>€ 39,60/kg</t>
+          <t>€ 11,93/kg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen Raw</t>
+          <t>Natural Happiness pijnboompitten</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>50 gram</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1682,34 +1682,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>€ 9,80/kg</t>
+          <t>€ 39,60/kg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten Raw</t>
+          <t>Natural Happiness amandelen Raw</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>100 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1719,34 +1719,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>€ 12,80/kg</t>
+          <t>€ 9,80/kg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Natural Happiness chiazaad</t>
+          <t>Natural Happiness walnoten Raw</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1756,71 +1756,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 12,80/kg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Natural Happiness chiazaad</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>150 grammes | Divers parfums</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Clusters Choco Moment</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Diverses saveurs</t>
+          <t>150 grammes | Divers parfums</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1830,34 +1830,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>17,27 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Clusters Choco Moment</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>150 g | Divers parfums</t>
+          <t>Diverses saveurs</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1867,34 +1867,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>17,27 €/kg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Divers parfums</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1904,34 +1904,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>15,93 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment Édition spéciale</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 grammes | Diverses saveurs</t>
+          <t>150 g | Divers modèles</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1941,34 +1941,34 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>19,93 €/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cacahuètes au chocolat Choco Moment</t>
+          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1978,34 +1978,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>9,58 €/kg</t>
+          <t>15,93 €/kg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Raisins secs au chocolat Choco Moment</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment Édition spéciale</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>260 grammes</t>
+          <t>150 grammes | Diverses saveurs</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2015,34 +2015,34 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7,65 €/kg</t>
+          <t>19,93 €/kg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Noix et raisins Snacks of the World</t>
+          <t>Cacahuètes au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2052,34 +2052,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6,45 €/kg</t>
+          <t>9,58 €/kg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Noix de cajou salées Snacks of the World</t>
+          <t>Raisins secs au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>260 grammes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2089,12 +2089,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10,78 €/kg</t>
+          <t>7,65 €/kg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
@@ -2205,29 +2205,29 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Crackers de riz Snacks of the World Style Kyoto</t>
+          <t>Noix de cajou non salées format XL Snacks of the World</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,34 +2237,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>8,60 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
+          <t>Crackers de riz Snacks of the World Style Kyoto</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>225 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2274,34 +2274,34 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>8,67 €/kg</t>
+          <t>8,60 €/kg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mélange de noix de pécan Snacks of the World</t>
+          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>225 grammes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2311,29 +2311,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>8,67 €/kg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
+          <t>Mélange de noix de pécan Snacks of the World</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2353,19 +2353,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2385,29 +2385,29 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mélange de noix de macadamia Snacks of the World</t>
+          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2427,29 +2427,29 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
+          <t>Mélange de noix de macadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2459,34 +2459,34 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Noix de cajou Snacks of the World</t>
+          <t>Noix de cajou salées Snacks of the World</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>150 grammes | non salées</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2496,34 +2496,34 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10,80 €/kg</t>
+          <t>10,78 €/kg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cacahuètes non salées Snacks of the World</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2533,34 +2533,34 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cacahuètes salées Snacks of the World</t>
+          <t>Noix de cajou non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,34 +2570,34 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Noix de cajou Snacks of the World</t>
+          <t>Cacahuètes non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2607,34 +2607,34 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10,80 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mélange apéritif Snacks of the World Hot Mix</t>
+          <t>Cacahuètes salées Snacks of the World</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,34 +2644,34 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>6,23 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
+          <t>Noix de cajou Snacks of the World</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>250 grammes</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2681,34 +2681,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Craquelins au piment Snacks of the World</t>
+          <t>Mélange apéritif Snacks of the World Hot Mix</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2718,34 +2718,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>11,93 €/kg</t>
+          <t>6,23 €/kg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cacahuètes au wasabi Snacks of the World</t>
+          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>250 grammes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2755,34 +2755,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>7,56 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
+          <t>Craquelins au piment Snacks of the World</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,34 +2792,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>11,93 €/kg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness</t>
+          <t>Cacahuètes au wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2829,34 +2829,34 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>7,56 €/kg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Noix et raisins Snacks of the World</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2866,34 +2866,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>7,35 €/kg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Noix de pécan Natural Happiness Raw</t>
+          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2903,34 +2903,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>23,90 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness Raw</t>
+          <t>Noix de pécan Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2940,34 +2940,34 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>23,90 €/kg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
+          <t>Cerneaux de noix Natural Happiness</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2977,34 +2977,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Mélange de fruits secs Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3014,34 +3014,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Noix de cajou Natural Happiness Sans sel</t>
+          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3051,34 +3051,34 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness format XL</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3088,24 +3088,24 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness format XL</t>
+          <t>Noix de cajou Natural Happiness Sans sel</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3125,34 +3125,34 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness Raw</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3162,34 +3162,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Graines de chia Natural Happiness</t>
+          <t>Amandes Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3199,61 +3199,61 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Choco Moment Schokonüsse Special Edition</t>
+          <t>Cerneaux de noix Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Choco Moment Cranberry-Erdnuss-Mischung</t>
+          <t>Amandes Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3263,81 +3263,81 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>15,27 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Graines de chia Natural Happiness</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Choco Moment Schokonüsse Special Edition</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Sorten</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3347,34 +3347,34 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Choco Moment Cluster</t>
+          <t>Choco Moment Cranberry-Erdnuss-Mischung</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Verschiedene Varianten</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3384,34 +3384,34 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>15,27 €/kg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Choco Moment Schoko-Erdnüsse</t>
+          <t>Choco Moment Nussmischung</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3421,34 +3421,34 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>9,58 €/kg</t>
+          <t>18,60 €/kg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Choco Moment Schokoladenrosinen</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3458,34 +3458,34 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>6,38 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>150 g | Verschiedene Sorten</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3495,34 +3495,34 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6,23 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Snacks of the World Wasabi-Erdnüsse</t>
+          <t>Choco Moment Cluster</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3532,34 +3532,34 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>7,56 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Choco Moment Schoko-Erdnüsse</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3569,34 +3569,34 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>9,93 €/kg</t>
+          <t>9,58 €/kg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Snacks of the World Pistazienmischung</t>
+          <t>Choco Moment Schokoladenrosinen</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3606,34 +3606,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>6,38 €/kg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3643,34 +3643,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>8,40 €/kg</t>
+          <t>6,23 €/kg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3680,24 +3680,24 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
+          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3722,24 +3722,24 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Snacks of the World Gesalzene Erdnüsse</t>
+          <t>Snacks of the World Wasabi-Erdnüsse</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3754,34 +3754,34 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>7,56 €/kg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne</t>
+          <t>Snacks of the World Herzhafter Reissnack Kyoto Style</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>150 g | Ungesalzen</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3791,34 +3791,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>9,27 €/kg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne</t>
+          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3828,34 +3828,34 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Snacks of the World Nüsse und Rosinen</t>
+          <t>Snacks of the World Gesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3865,34 +3865,34 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>6,45 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Snacks of the World Snackmix</t>
+          <t>Snacks of the World Nüsse und Rosinen</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>225 g | Verschiedene Varianten</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3902,34 +3902,34 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>8,36 €/kg</t>
+          <t>7,75 €/kg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Snacks of the World Crispy Crackers Sweet Chilli</t>
+          <t>Snacks of the World Pistazienmischung</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3939,34 +3939,34 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>12,90 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewnüsse XL-Pack</t>
+          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3976,34 +3976,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>11,90 €/kg</t>
+          <t>8,40 €/kg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Snacks of the World Herzhafter Reissnack Kyoto Style</t>
+          <t>Snacks of the World Snackmix</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>225 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,34 +4013,34 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>9,27 €/kg</t>
+          <t>8,36 €/kg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3205652</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Snacks of the World Pekan-Nussmischung</t>
+          <t>Snacks of the World Crispy Crackers Sweet Chilli</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4050,34 +4050,34 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>12,90 €/kg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Snacks of the World Macadamia-Nussmischung</t>
+          <t>Snacks of the World Ungesalzene Cashewnüsse XL-Pack</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4087,34 +4087,34 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Erdnüsse</t>
+          <t>Snacks of the World Pekan-Nussmischung</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4124,34 +4124,34 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Snacks of the World Chili Cracker Spicy</t>
+          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4161,30 +4161,34 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>11,07 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3011936</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>Snacks of the World Macadamia-Nussmischung</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>200 g</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4194,34 +4198,34 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>7,63 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss- und Bananenmischung</t>
+          <t>Snacks of the World Cashewkerne Gesalzen</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4231,24 +4235,24 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>9,97 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss-Fruchtmischung</t>
+          <t>Snacks of the World Ungesalzene Cashewkerne</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4258,7 +4262,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4268,34 +4272,34 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>14,07 €/kg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Natural Happiness Proteinmischung</t>
+          <t>Snacks of the World Ungesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4305,34 +4309,34 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Natural Happiness Cashewkerne ungesalzen</t>
+          <t>Snacks of the World Cashewkerne</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4342,34 +4346,34 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>14,07 €/kg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Natural Happiness Nussmischung XL-Packung</t>
+          <t>Snacks of the World Chili Cracker Spicy</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4379,34 +4383,30 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>11,07 €/kg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3011936</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>300 g</t>
-        </is>
-      </c>
+          <t>Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4416,24 +4416,24 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>7,63 €/kg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Natural Happiness Nuss- und Bananenmischung</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4453,24 +4453,24 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>9,97 €/kg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Nussmischung</t>
+          <t>Natural Happiness Nuss-Fruchtmischung</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4490,34 +4490,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Natural Happiness Pinienkerne</t>
+          <t>Natural Happiness Proteinmischung</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4527,34 +4527,34 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>45,60 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Pekannusskerne</t>
+          <t>Natural Happiness Cashewkerne ungesalzen</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4564,34 +4564,34 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>22,90 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Natural Happiness Nussmischung XL-Packung</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4601,330 +4601,330 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>7,93 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
+          <t>Natural Happiness Mandeln XL-Packung</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>68,60 zł/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Natural Happiness Walnüsse XL-Packung</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Natural Happiness Raw Nussmischung</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>150 gramów | Różne smaki</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Czekoladowe kulki Choco Moment</t>
+          <t>Natural Happiness Pinienkerne</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Różne warianty</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>74,60 zł/kg</t>
+          <t>45,60 €/kg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Choco Moment</t>
+          <t>Natural Happiness Raw Pekannusskerne</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>150 gramów | Różne warianty</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>83,93 zł/kg</t>
+          <t>22,90 €/kg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>73,27 zł/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>260 gramów</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>43,42 zł/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Rodzynki w czekoladzie Choco Moment</t>
+          <t>Natural Happiness Chiasamen</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>34,58 zł/kg</t>
+          <t>7,93 €/kg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka orzechów Choco Moment</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>150 gramów | niesolone</t>
+          <t>150 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4934,34 +4934,34 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>47,93 zł/kg</t>
+          <t>83,93 zł/kg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4971,34 +4971,34 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>47,93 zł/kg</t>
+          <t>68,60 zł/kg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3208234</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Orzechy i rodzynki Snacks of the World</t>
+          <t>Choco Moment Czekoladowa mieszanka</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5008,34 +5008,34 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>27,45 zł/kg</t>
+          <t>59,93 zł/kg</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Miks przekąsek Snacks of the World</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>225 gramów | Różne warianty</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5045,34 +5045,34 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>37,73 zł/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>150 gramów | Różne smaki</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5082,34 +5082,34 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>43,27 zł/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
+          <t>Czekoladowe kulki Choco Moment</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>100 gramów</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5119,34 +5119,34 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>54,90 zł/kg</t>
+          <t>74,60 zł/kg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mieszanka krakersów ryżowych Snacks of the World Kyoto Style</t>
+          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5156,34 +5156,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>33,00 zł/kg</t>
+          <t>73,27 zł/kg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
+          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>225 gramów</t>
+          <t>260 gramów</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5193,34 +5193,34 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>39,07 zł/kg</t>
+          <t>43,42 zł/kg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów pekan Snacks of the World</t>
+          <t>Rodzynki w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5230,34 +5230,34 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>34,58 zł/kg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5267,34 +5267,34 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>42,45 zł/kg</t>
+          <t>43,27 zł/kg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Snacks of the World</t>
+          <t>Miks przekąsek Snacks of the World</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>225 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5304,34 +5304,34 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>47,45 zł/kg</t>
+          <t>37,73 zł/kg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3205652</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów makadamia Snacks of the World</t>
+          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>100 gramów</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5341,24 +5341,24 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>54,90 zł/kg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World Solone</t>
+          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5383,29 +5383,29 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
+          <t>Mieszanka krakersów ryżowych Snacks of the World Kyoto Style</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5415,34 +5415,34 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>42,45 zł/kg</t>
+          <t>33,00 zł/kg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Niesolone orzeszki ziemne Snacks of the World</t>
+          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>225 gramów</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5452,34 +5452,34 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>39,07 zł/kg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Solone orzeszki ziemne Snacks of the World</t>
+          <t>Mieszanka orzechów pekan Snacks of the World</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5489,34 +5489,34 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pikantna mieszanka Snacks of the World</t>
+          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>400 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5526,34 +5526,34 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>24,88 zł/kg</t>
+          <t>42,45 zł/kg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
+          <t>Mieszanka orzechów Snacks of the World</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5563,34 +5563,34 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>33,96 zł/kg</t>
+          <t>47,45 zł/kg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Krakersy chilli Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów makadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5600,34 +5600,34 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>46,33 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne wasabi Snacks of the World</t>
+          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5637,34 +5637,34 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>31,80 zł/kg</t>
+          <t>42,45 zł/kg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3011936</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mieszanka daktyli, pestek i orzechów Natural Happiness</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 gramów | niesolone</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5674,34 +5674,34 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>39,83 zł/kg</t>
+          <t>55,67 zł/kg</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i bananów Natural Happiness</t>
+          <t>Niesolone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5711,34 +5711,34 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>46,50 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i owoców Natural Happiness</t>
+          <t>Solone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5748,34 +5748,34 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>44,60 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5785,34 +5785,34 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>49,93 zł/kg</t>
+          <t>55,67 zł/kg</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
+          <t>Pikantna mieszanka Snacks of the World</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>400 gramów</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5822,34 +5822,34 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>54,83 zł/kg</t>
+          <t>24,88 zł/kg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
+          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5859,34 +5859,34 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>49,83 zł/kg</t>
+          <t>33,96 zł/kg</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Migdały opakowanie XL Natural Happiness</t>
+          <t>Krakersy chilli Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5896,34 +5896,34 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>46,30 zł/kg</t>
+          <t>46,33 zł/kg</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Orzechy włoskie Natural Happiness</t>
+          <t>Orzeszki ziemne wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>13.99</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5933,34 +5933,34 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>46,63 zł/kg</t>
+          <t>31,80 zł/kg</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness Raw</t>
+          <t>Orzechy i rodzynki Snacks of the World</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5970,34 +5970,34 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>63,27 zł/kg</t>
+          <t>31,95 zł/kg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>3011936</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Orzeszki pinii Natural Happiness</t>
+          <t>Mieszanka daktyli, pestek i orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>50 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6007,34 +6007,34 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>159,00 zł/kg</t>
+          <t>39,83 zł/kg</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Orzechy pekan Natural Happiness Raw</t>
+          <t>Mieszanka orzechów i bananów Natural Happiness</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>100 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6044,24 +6044,24 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>82,90 zł/kg</t>
+          <t>46,50 zł/kg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Migdały Natural Happiness Raw</t>
+          <t>Mieszanka orzechów i owoców Natural Happiness</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6081,49 +6081,419 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>46,60 zł/kg</t>
+          <t>44,60 zł/kg</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>3011014</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Mieszanka orzechów Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>49,93 zł/kg</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>3003625</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>54,83 zł/kg</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>3003153</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Mieszanka orzechów Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>49,83 zł/kg</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2581335</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Migdały opakowanie XL Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>46,30 zł/kg</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2581329</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Orzechy włoskie Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>46,63 zł/kg</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2581020</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Mieszanka orzechów Natural Happiness Raw</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>150 gramów</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>63,27 zł/kg</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2580351</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Orzeszki pinii Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>50 gramów</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>159,00 zł/kg</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2576502</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Orzechy pekan Natural Happiness Raw</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>100 gramów</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>82,90 zł/kg</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2572372</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Migdały Natural Happiness Raw</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>150 gramów</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>46,60 zł/kg</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>2572352</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Orzechy włoskie Natural Happiness Raw</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>100 gramów</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>5.95</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>pl</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>59,50 zł/kg</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2572286</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Nasiona chia Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>150 gramów</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>36,60 zł/kg</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>

--- a/Web Scraping/Action_data.xlsx
+++ b/Web Scraping/Action_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Choco Moment cranberry-pindamix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150 gram | diverse smaken</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,34 +535,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>€ 12,53/kg</t>
+          <t>€ 14,60/kg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choco Moment cranberry-pindamix</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>150 gram | diverse smaken</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>€ 14,60/kg</t>
+          <t>€ 12,53/kg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -614,29 +614,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladepinda's</t>
+          <t>Choco Moment notenmix</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>260 gram</t>
+          <t>150 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,24 +646,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>€ 7,23/kg</t>
+          <t>€ 17,93/kg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladerozijnen</t>
+          <t>Choco Moment chocoladepinda's</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,34 +683,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>€ 6,73/kg</t>
+          <t>€ 7,23/kg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Snacks of the World pistache mix</t>
+          <t>Choco Moment chocoladerozijnen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>260 gram</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,34 +720,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 6,73/kg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Snacks of the World snackmix</t>
+          <t>Snacks of the World ongezouten pinda's</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>225 gram | diverse varianten</t>
+          <t>375 gram</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,34 +757,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>€ 8,36/kg</t>
+          <t>€ 4,77/kg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World snackmix</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>225 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -794,34 +794,34 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 8,36/kg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten XL-pack</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>500 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -831,34 +831,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>€ 9,90/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Snacks of the World rijstzoutjes mix Kyoto Style</t>
+          <t>Snacks of the World ongezouten cashewnoten XL-pack</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>500 gram</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -868,34 +868,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>€ 6,60/kg</t>
+          <t>€ 9,90/kg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Snacks of the World sriracha pindabollen Spicy</t>
+          <t>Snacks of the World rijstzoutjes mix Kyoto Style</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>225 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,34 +905,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>€ 7,96/kg</t>
+          <t>€ 6,60/kg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Snacks of the World pecan-notenmix</t>
+          <t>Snacks of the World sriracha pindabollen Spicy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>225 gram</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -942,24 +942,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 7,96/kg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
+          <t>Snacks of the World pecan-notenmix</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -979,24 +979,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Snacks of the World macadamia notenmix</t>
+          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,34 +1016,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 9,45/kg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Snacks of the World cashewnoten gezouten</t>
+          <t>Snacks of the World macadamia notenmix</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>500 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>€ 9,90/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1090,12 +1090,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1539,19 +1539,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen XL-pack</t>
+          <t>Natural Happiness notenmix</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1571,24 +1571,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>€ 9,83/kg</t>
+          <t>€ 11,63/kg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten XL-pack</t>
+          <t>Natural Happiness amandelen XL-pack</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1608,34 +1608,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>€ 10,97/kg</t>
+          <t>€ 9,83/kg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Natural Happiness notenmix Raw</t>
+          <t>Natural Happiness walnoten XL-pack</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1645,34 +1645,34 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 10,97/kg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Natural Happiness pijnboompitten</t>
+          <t>Natural Happiness Salad Mix</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>50 gram</t>
+          <t>75 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>€ 39,60/kg</t>
+          <t>€ 13,20/kg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1798,29 +1798,29 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Clusters Choco Moment</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>150 grammes | Divers parfums</t>
+          <t>Diverses saveurs</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1830,34 +1830,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>17,27 €/kg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Clusters Choco Moment</t>
+          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Diverses saveurs</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1867,12 +1867,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>17,27 €/kg</t>
+          <t>15,93 €/kg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -1909,29 +1909,29 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 g | Divers modèles</t>
+          <t>150 grammes | Divers parfums</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1941,34 +1941,34 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Divers modèles</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>15,93 €/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2094,29 +2094,29 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mélange de gâteaux apéritifs Snacks of the World</t>
+          <t>Crackers de riz Snacks of the World Style Kyoto</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>225 g | Divers modèles</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2126,34 +2126,34 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8,76 €/kg</t>
+          <t>8,60 €/kg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
+          <t>Mélange de gâteaux apéritifs Snacks of the World</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>225 g | Divers modèles</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2163,34 +2163,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>8,76 €/kg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
+          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2200,34 +2200,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3205652</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées format XL Snacks of the World</t>
+          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,34 +2237,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>11,90 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Crackers de riz Snacks of the World Style Kyoto</t>
+          <t>Noix de cajou non salées format XL Snacks of the World</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2274,12 +2274,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>8,60 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -2871,29 +2871,29 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
+          <t>Mélange de croûtons pour salade Natural Happiness</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>75 g | diverses saveurs</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2903,34 +2903,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>13,20 €/kg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Noix de pécan Natural Happiness Raw</t>
+          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2940,34 +2940,34 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>23,90 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2977,34 +2977,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness Raw</t>
+          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3014,34 +3014,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
+          <t>Noix de cajou Natural Happiness Sans sel</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3051,19 +3051,19 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3088,34 +3088,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Noix de cajou Natural Happiness Sans sel</t>
+          <t>Amandes Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3125,24 +3125,24 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Cerneaux de noix Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3162,34 +3162,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness format XL</t>
+          <t>Mélange de fruits secs Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3199,34 +3199,34 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness format XL</t>
+          <t>Amandes Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3236,34 +3236,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness Raw</t>
+          <t>Cerneaux de noix Natural Happiness</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Choco Moment Schokonüsse Special Edition</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>150 g | Verschiedene Sorten</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3347,34 +3347,34 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Choco Moment Cranberry-Erdnuss-Mischung</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3384,34 +3384,34 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>15,27 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Choco Moment Nussmischung</t>
+          <t>Choco Moment Cluster</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3421,24 +3421,24 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>18,60 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Choco Moment Nussmischung</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3458,34 +3458,34 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>18,60 €/kg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Choco Moment Schokonüsse Special Edition</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Sorten</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3495,29 +3495,29 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Choco Moment Cluster</t>
+          <t>Choco Moment Schoko-Erdnüsse</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Verschiedene Varianten</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3532,24 +3532,24 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>9,58 €/kg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Choco Moment Schoko-Erdnüsse</t>
+          <t>Choco Moment Schokoladenrosinen</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3569,34 +3569,34 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>9,58 €/kg</t>
+          <t>6,38 €/kg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Choco Moment Schokoladenrosinen</t>
+          <t>Snacks of the World Herzhafter Reissnack Kyoto Style</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3606,34 +3606,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>6,38 €/kg</t>
+          <t>9,27 €/kg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3643,34 +3643,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>6,23 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World Nüsse und Rosinen</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3680,24 +3680,24 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>9,93 €/kg</t>
+          <t>7,75 €/kg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
+          <t>Snacks of the World Macadamia-Nussmischung</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3717,34 +3717,34 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Snacks of the World Wasabi-Erdnüsse</t>
+          <t>Snacks of the World Snackmix</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>225 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3754,24 +3754,24 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>7,56 €/kg</t>
+          <t>8,36 €/kg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Snacks of the World Herzhafter Reissnack Kyoto Style</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3791,34 +3791,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>9,27 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
+          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3828,34 +3828,34 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>8,40 €/kg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Snacks of the World Gesalzene Erdnüsse</t>
+          <t>Snacks of the World Pekan-Nussmischung</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3865,24 +3865,24 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Snacks of the World Nüsse und Rosinen</t>
+          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3902,34 +3902,34 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>7,75 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Snacks of the World Pistazienmischung</t>
+          <t>Snacks of the World Cashewkerne Gesalzen</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3939,34 +3939,34 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
+          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3976,34 +3976,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>8,40 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Snacks of the World Snackmix</t>
+          <t>Snacks of the World Ungesalzene Cashewkerne</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>225 g | Verschiedene Varianten</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,34 +4013,34 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>8,36 €/kg</t>
+          <t>14,07 €/kg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Snacks of the World Crispy Crackers Sweet Chilli</t>
+          <t>Snacks of the World Ungesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4050,34 +4050,34 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>12,90 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewnüsse XL-Pack</t>
+          <t>Snacks of the World Gesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4087,34 +4087,34 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>11,90 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Snacks of the World Pekan-Nussmischung</t>
+          <t>Snacks of the World Cashewkerne</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4124,34 +4124,34 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>14,07 €/kg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4161,34 +4161,34 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>6,23 €/kg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Snacks of the World Macadamia-Nussmischung</t>
+          <t>Snacks of the World Chili Cracker Spicy</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4198,34 +4198,34 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>11,07 €/kg</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne Gesalzen</t>
+          <t>Snacks of the World Wasabi-Erdnüsse</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4235,34 +4235,34 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>11,90 €/kg</t>
+          <t>7,56 €/kg</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewkerne</t>
+          <t>Natural Happiness Salatmix</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>75 Gramm | verschiedene Varianten</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4272,34 +4272,30 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>14,07 €/kg</t>
+          <t>13,20 €/kg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3011936</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Erdnüsse</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>375 g</t>
-        </is>
-      </c>
+          <t>Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4309,34 +4305,34 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>7,63 €/kg</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne</t>
+          <t>Natural Happiness Nuss- und Bananenmischung</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4346,24 +4342,24 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>14,07 €/kg</t>
+          <t>9,97 €/kg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Snacks of the World Chili Cracker Spicy</t>
+          <t>Natural Happiness Nuss-Fruchtmischung</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4373,7 +4369,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4383,30 +4379,34 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>11,07 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3011936</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>Natural Happiness Proteinmischung</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>300 g</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4416,24 +4416,24 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>7,63 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss- und Bananenmischung</t>
+          <t>Natural Happiness Cashewkerne ungesalzen</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4453,34 +4453,34 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>9,97 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss-Fruchtmischung</t>
+          <t>Natural Happiness Nussmischung XL-Packung</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4490,24 +4490,24 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Natural Happiness Proteinmischung</t>
+          <t>Natural Happiness Mandeln XL-Packung</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4527,24 +4527,24 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Natural Happiness Cashewkerne ungesalzen</t>
+          <t>Natural Happiness Walnüsse XL-Packung</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4564,34 +4564,34 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Natural Happiness Nussmischung XL-Packung</t>
+          <t>Natural Happiness Raw Pekannusskerne</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4601,34 +4601,34 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>22,90 €/kg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4638,34 +4638,34 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4675,24 +4675,24 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Nussmischung</t>
+          <t>Natural Happiness Chiasamen</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4712,219 +4712,219 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>7,93 €/kg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Natural Happiness Pinienkerne</t>
+          <t>Czekoladowe kulki Choco Moment</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>45,60 €/kg</t>
+          <t>74,60 zł/kg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Pekannusskerne</t>
+          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>22,90 €/kg</t>
+          <t>68,60 zł/kg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Mandeln</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Walnüsse</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 gramów | Różne smaki</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Mieszanka orzechów Choco Moment</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>7,93 €/kg</t>
+          <t>83,93 zł/kg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Choco Moment</t>
+          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>150 gramów | Różne warianty</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4934,34 +4934,34 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>83,93 zł/kg</t>
+          <t>73,27 zł/kg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
+          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>260 gramów</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4971,29 +4971,29 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>68,60 zł/kg</t>
+          <t>43,42 zł/kg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3208234</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Choco Moment Czekoladowa mieszanka</t>
+          <t>Rodzynki w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Różne warianty</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5008,34 +5008,34 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>59,93 zł/kg</t>
+          <t>34,58 zł/kg</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Miks przekąsek Snacks of the World</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>225 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5045,34 +5045,34 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>37,73 zł/kg</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>150 gramów | Różne smaki</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5082,34 +5082,34 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>43,27 zł/kg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3205652</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Czekoladowe kulki Choco Moment</t>
+          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Różne warianty</t>
+          <t>100 gramów</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5119,34 +5119,34 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>74,60 zł/kg</t>
+          <t>54,90 zł/kg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
+          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>500 gramów</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>26.79</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5156,34 +5156,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>73,27 zł/kg</t>
+          <t>53,58 zł/kg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
+          <t>Mieszanka krakersów ryżowych Snacks of the World Kyoto Style</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>260 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5193,34 +5193,34 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>43,42 zł/kg</t>
+          <t>33,00 zł/kg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Rodzynki w czekoladzie Choco Moment</t>
+          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>225 gramów</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5230,34 +5230,34 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>34,58 zł/kg</t>
+          <t>39,07 zł/kg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
+          <t>Mieszanka orzechów pekan Snacks of the World</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5267,29 +5267,29 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>43,27 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Miks przekąsek Snacks of the World</t>
+          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>225 gramów | Różne warianty</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5304,34 +5304,34 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>37,73 zł/kg</t>
+          <t>42,45 zł/kg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
+          <t>Mieszanka orzechów makadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>100 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5341,34 +5341,34 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>54,90 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
+          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>500 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>26.79</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5378,34 +5378,34 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>53,58 zł/kg</t>
+          <t>47,95 zł/kg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mieszanka krakersów ryżowych Snacks of the World Kyoto Style</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>150 gramów | niesolone</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5415,34 +5415,34 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>33,00 zł/kg</t>
+          <t>58,60 zł/kg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
+          <t>Niesolone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>225 gramów</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5452,34 +5452,34 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>39,07 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów pekan Snacks of the World</t>
+          <t>Solone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5489,34 +5489,34 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5526,34 +5526,34 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>42,45 zł/kg</t>
+          <t>58,60 zł/kg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Snacks of the World</t>
+          <t>Pikantna mieszanka Snacks of the World</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>400 gramów</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5563,34 +5563,34 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>47,45 zł/kg</t>
+          <t>24,88 zł/kg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów makadamia Snacks of the World</t>
+          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5600,34 +5600,34 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>33,96 zł/kg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
+          <t>Krakersy chilli Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5637,34 +5637,34 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>42,45 zł/kg</t>
+          <t>46,33 zł/kg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Orzeszki ziemne wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>150 gramów | niesolone</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5674,34 +5674,34 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>55,67 zł/kg</t>
+          <t>31,80 zł/kg</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Niesolone orzeszki ziemne Snacks of the World</t>
+          <t>Orzechy i rodzynki Snacks of the World</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5711,34 +5711,34 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>31,95 zł/kg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Solone orzeszki ziemne Snacks of the World</t>
+          <t>Mieszanka sałatkowa Natural Happiness</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>75 gramów | różne warianty</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5748,34 +5748,34 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>59,87 zł/kg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3011936</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka daktyli, pestek i orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5785,34 +5785,34 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>55,67 zł/kg</t>
+          <t>39,83 zł/kg</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pikantna mieszanka Snacks of the World</t>
+          <t>Mieszanka orzechów i bananów Natural Happiness</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>400 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5822,34 +5822,34 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>24,88 zł/kg</t>
+          <t>46,50 zł/kg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
+          <t>Mieszanka orzechów i owoców Natural Happiness</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5859,34 +5859,34 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>33,96 zł/kg</t>
+          <t>44,60 zł/kg</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Krakersy chilli Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5896,34 +5896,34 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>46,33 zł/kg</t>
+          <t>49,93 zł/kg</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne wasabi Snacks of the World</t>
+          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5933,34 +5933,34 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>31,80 zł/kg</t>
+          <t>54,83 zł/kg</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Orzechy i rodzynki Snacks of the World</t>
+          <t>Mieszanka orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5970,24 +5970,24 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>31,95 zł/kg</t>
+          <t>49,83 zł/kg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3011936</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mieszanka daktyli, pestek i orzechów Natural Happiness</t>
+          <t>Migdały opakowanie XL Natural Happiness</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6007,24 +6007,24 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>39,83 zł/kg</t>
+          <t>46,30 zł/kg</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i bananów Natural Happiness</t>
+          <t>Orzechy włoskie Natural Happiness</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>13.99</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6044,24 +6044,24 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>46,50 zł/kg</t>
+          <t>46,63 zł/kg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i owoców Natural Happiness</t>
+          <t>Migdały Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6081,34 +6081,34 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>44,60 zł/kg</t>
+          <t>46,60 zł/kg</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
+          <t>Orzechy włoskie Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>100 gramów</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6118,34 +6118,34 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>49,93 zł/kg</t>
+          <t>59,50 zł/kg</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
+          <t>Nasiona chia Natural Happiness</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6155,345 +6155,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>54,83 zł/kg</t>
+          <t>36,60 zł/kg</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>3003153</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>49,83 zł/kg</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2581335</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Migdały opakowanie XL Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>46,30 zł/kg</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2581329</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Orzechy włoskie Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>13.99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>46,63 zł/kg</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2581020</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Mieszanka orzechów Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>63,27 zł/kg</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2580351</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Orzeszki pinii Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>50 gramów</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>159,00 zł/kg</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2576502</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Orzechy pekan Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>100 gramów</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>82,90 zł/kg</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2572372</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Migdały Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>46,60 zł/kg</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2572352</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Orzechy włoskie Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>100 gramów</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>59,50 zł/kg</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2572286</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Nasiona chia Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>36,60 zł/kg</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>

--- a/Web Scraping/Action_data.xlsx
+++ b/Web Scraping/Action_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Choco Moment cranberry-pindamix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianten</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,34 +498,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>€ 12,53/kg</t>
+          <t>€ 14,60/kg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choco Moment cranberry-pindamix</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>150 gram | diverse smaken</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,34 +535,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>€ 14,60/kg</t>
+          <t>€ 12,53/kg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Choco Moment clusters</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>150 gram | diverse smaken</t>
+          <t>Diverse varianten</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,34 +572,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>€ 12,53/kg</t>
+          <t>€ 15,93/kg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choco Moment clusters</t>
+          <t>Choco Moment notenmix</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Diverse varianten</t>
+          <t>150 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,34 +609,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>€ 15,93/kg</t>
+          <t>€ 17,93/kg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choco Moment notenmix</t>
+          <t>Choco Moment chocoladepinda's</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianten</t>
+          <t>260 gram</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,24 +646,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>€ 17,93/kg</t>
+          <t>€ 7,23/kg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladepinda's</t>
+          <t>Choco Moment chocoladerozijnen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,34 +683,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>€ 7,23/kg</t>
+          <t>€ 6,73/kg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladerozijnen</t>
+          <t>Snacks of the World Chilli Crackers Spicy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>260 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,34 +720,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>€ 6,73/kg</t>
+          <t>€ 9,67/kg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten pinda's</t>
+          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>375 gram</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,34 +757,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>€ 4,77/kg</t>
+          <t>€ 6,76/kg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Snacks of the World snackmix</t>
+          <t>Snacks of the World sriracha pindabollen Spicy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>225 gram | diverse varianten</t>
+          <t>225 gram</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -794,34 +794,34 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>€ 8,36/kg</t>
+          <t>€ 6,62/kg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World wasabistijl pinda's</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -831,34 +831,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 6,76/kg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten XL-pack</t>
+          <t>Snacks of the World Cashew &amp; Peanut Mix Sweet BBQ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>500 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -873,29 +873,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Snacks of the World rijstzoutjes mix Kyoto Style</t>
+          <t>Snacks of the World Sweet &amp; Spicy mix</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,34 +905,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>€ 6,60/kg</t>
+          <t>€ 9,90/kg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Snacks of the World sriracha pindabollen Spicy</t>
+          <t>Snacks of the World cashewnoten gezouten</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>225 gram</t>
+          <t>500 gram</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -942,34 +942,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>€ 7,96/kg</t>
+          <t>€ 9,90/kg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Snacks of the World pecan-notenmix</t>
+          <t>Snacks of the World snackmix</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>225 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -979,34 +979,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 8,36/kg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,34 +1016,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Snacks of the World macadamia notenmix</t>
+          <t>Snacks of the World rijstzoutjes mix Kyoto Style</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,24 +1053,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 6,60/kg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Snacks of the World honing cashew- en pindamix</t>
+          <t>Snacks of the World pecan-notenmix</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1095,29 +1095,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten</t>
+          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1127,34 +1127,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>€ 11,67/kg</t>
+          <t>€ 9,45/kg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Snacks of the World gezouten pinda's</t>
+          <t>Snacks of the World pistache mix</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>375 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,34 +1164,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>€ 4,77/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Snacks of the World cashewnoten</t>
+          <t>Snacks of the World macadamia notenmix</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1201,34 +1201,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>€ 11,67/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Snacks of the World honing cashew- en pindamix</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1238,34 +1238,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>€ 6,23/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
+          <t>Snacks of the World ongezouten cashewnoten</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1275,34 +1275,34 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>€ 7,40/kg</t>
+          <t>€ 11,67/kg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Snacks of the World Chilli Crackers Spicy</t>
+          <t>Snacks of the World ongezouten pinda's</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>375 gram</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1312,34 +1312,34 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>€ 9,67/kg</t>
+          <t>€ 4,77/kg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Snacks of the World wasabistijl pinda's</t>
+          <t>Snacks of the World gezouten pinda's</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>375 gram</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1349,34 +1349,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>€ 7,96/kg</t>
+          <t>€ 4,77/kg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Snacks of the World noten en rozijnen</t>
+          <t>Snacks of the World cashewnoten</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1386,34 +1386,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>€ 7,20/kg</t>
+          <t>€ 11,67/kg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Natural Happiness noten &amp; bananen mix</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>400 gram</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1423,34 +1423,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>€ 9,97/kg</t>
+          <t>€ 6,23/kg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Natural Happiness noten &amp; fruit mix</t>
+          <t>Snacks of the World noten en rozijnen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1460,24 +1460,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 7,20/kg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Natural Happiness proteïnemix</t>
+          <t>Natural Happiness noten &amp; bananen mix</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1502,29 +1502,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Natural Happiness cashewnoten ongezouten</t>
+          <t>Natural Happiness noten &amp; fruit mix</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1534,24 +1534,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>€ 11,63/kg</t>
+          <t>€ 11,93/kg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Natural Happiness notenmix</t>
+          <t>Natural Happiness proteïnemix</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1571,24 +1571,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>€ 11,63/kg</t>
+          <t>€ 9,97/kg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen XL-pack</t>
+          <t>Natural Happiness cashewnoten ongezouten</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1608,24 +1608,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>€ 9,83/kg</t>
+          <t>€ 11,63/kg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten XL-pack</t>
+          <t>Natural Happiness notenmix</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1645,34 +1645,34 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>€ 10,97/kg</t>
+          <t>€ 11,63/kg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Natural Happiness Salad Mix</t>
+          <t>Natural Happiness amandelen XL-pack</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>75 gram | diverse varianten</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1682,34 +1682,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>€ 13,20/kg</t>
+          <t>€ 9,83/kg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen Raw</t>
+          <t>Natural Happiness walnoten XL-pack</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1719,34 +1719,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>€ 9,80/kg</t>
+          <t>€ 10,97/kg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten Raw</t>
+          <t>Natural Happiness notenmix Raw</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>100 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1756,34 +1756,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>€ 12,80/kg</t>
+          <t>€ 11,93/kg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Natural Happiness chiazaad</t>
+          <t>Natural Happiness Salad Mix</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>75 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1793,145 +1793,145 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 13,20/kg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Clusters Choco Moment</t>
+          <t>Natural Happiness amandelen Raw</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Diverses saveurs</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>17,27 €/kg</t>
+          <t>€ 9,80/kg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
+          <t>Natural Happiness walnoten Raw</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>15,93 €/kg</t>
+          <t>€ 12,80/kg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Natural Happiness chiazaad</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>150 g | Divers parfums</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 grammes | Divers parfums</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1941,34 +1941,34 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>15,93 €/kg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 g | Divers modèles</t>
+          <t>150 g | Divers parfums</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1978,34 +1978,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment Édition spéciale</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>150 grammes | Diverses saveurs</t>
+          <t>150 grammes | Divers parfums</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2015,34 +2015,34 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>19,93 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cacahuètes au chocolat Choco Moment</t>
+          <t>Clusters Choco Moment</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>Diverses saveurs</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2052,34 +2052,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>9,58 €/kg</t>
+          <t>17,27 €/kg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Raisins secs au chocolat Choco Moment</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>260 grammes</t>
+          <t>150 g | Divers modèles</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2089,34 +2089,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7,65 €/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Crackers de riz Snacks of the World Style Kyoto</t>
+          <t>Cacahuètes au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2126,34 +2126,34 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8,60 €/kg</t>
+          <t>9,58 €/kg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mélange de gâteaux apéritifs Snacks of the World</t>
+          <t>Raisins secs au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>225 g | Divers modèles</t>
+          <t>260 grammes</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2163,34 +2163,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>8,76 €/kg</t>
+          <t>7,65 €/kg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
+          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>225 grammes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2200,34 +2200,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>7,78 €/kg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
+          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>250 grammes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,34 +2237,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>7,00 €/kg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées format XL Snacks of the World</t>
+          <t>Cacahuètes au wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2274,34 +2274,34 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>11,90 €/kg</t>
+          <t>6,76 €/kg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
+          <t>Mélange de cachuètes et noix de cajou Snacks of the World Sweet BBQ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>225 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2311,34 +2311,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>8,67 €/kg</t>
+          <t>10,55 €/kg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mélange de noix de pécan Snacks of the World</t>
+          <t>Sweet &amp; Spicy mix Snacks of the World</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2348,34 +2348,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>9,90 €/kg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
+          <t>Noix de cajou non salées format XL Snacks of the World</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2385,34 +2385,34 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
+          <t>Mélange de gâteaux apéritifs Snacks of the World</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>225 g | Divers modèles</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2422,34 +2422,34 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>8,76 €/kg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mélange de noix de macadamia Snacks of the World</t>
+          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2459,34 +2459,34 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3205652</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Noix de cajou salées Snacks of the World</t>
+          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2496,34 +2496,34 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10,78 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
+          <t>Crackers de riz Snacks of the World Style Kyoto</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2533,34 +2533,34 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>8,60 €/kg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées Snacks of the World</t>
+          <t>Mélange de noix de pécan Snacks of the World</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,34 +2570,34 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>11,67 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cacahuètes non salées Snacks of the World</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2607,34 +2607,34 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cacahuètes salées Snacks of the World</t>
+          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,34 +2644,34 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Noix de cajou Snacks of the World</t>
+          <t>Mélange de noix de macadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2681,34 +2681,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>11,67 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mélange apéritif Snacks of the World Hot Mix</t>
+          <t>Noix de cajou salées Snacks of the World</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2718,34 +2718,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>6,23 €/kg</t>
+          <t>10,78 €/kg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>250 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2755,34 +2755,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Craquelins au piment Snacks of the World</t>
+          <t>Noix de cajou non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,29 +2792,29 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11,93 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cacahuètes au wasabi Snacks of the World</t>
+          <t>Cacahuètes non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2829,34 +2829,34 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7,56 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Noix et raisins Snacks of the World</t>
+          <t>Cacahuètes salées Snacks of the World</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2866,34 +2866,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>7,35 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mélange de croûtons pour salade Natural Happiness</t>
+          <t>Noix de cajou Snacks of the World</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>75 g | diverses saveurs</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2903,34 +2903,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>13,20 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
+          <t>Mélange apéritif Snacks of the World Hot Mix</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2940,24 +2940,24 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>6,23 €/kg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Craquelins au piment Snacks of the World</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2977,34 +2977,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>11,93 €/kg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
+          <t>Noix et raisins Snacks of the World</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3014,24 +3014,24 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>6,95 €/kg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Noix de cajou Natural Happiness Sans sel</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3056,29 +3056,29 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3088,34 +3088,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness format XL</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3125,34 +3125,34 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness format XL</t>
+          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3162,34 +3162,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness Raw</t>
+          <t>Noix de cajou Natural Happiness Sans sel</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3199,34 +3199,34 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness Raw</t>
+          <t>Amandes Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3236,34 +3236,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness</t>
+          <t>Cerneaux de noix Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3273,34 +3273,34 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Graines de chia Natural Happiness</t>
+          <t>Mélange de fruits secs Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3310,172 +3310,172 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Mélange de croûtons pour salade Natural Happiness</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Sorten</t>
+          <t>75 g | diverses saveurs</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>13,20 €/kg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Amandes Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Choco Moment Cluster</t>
+          <t>Cerneaux de noix Natural Happiness</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Verschiedene Varianten</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Choco Moment Nussmischung</t>
+          <t>Graines de chia Natural Happiness</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>18,60 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Choco Moment Schokonüsse Special Edition</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3495,34 +3495,34 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Choco Moment Schoko-Erdnüsse</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g | Verschiedene Sorten</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3532,34 +3532,34 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>9,58 €/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Choco Moment Schokoladenrosinen</t>
+          <t>Choco Moment Cluster</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3569,34 +3569,34 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>6,38 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Snacks of the World Herzhafter Reissnack Kyoto Style</t>
+          <t>Choco Moment Nussmischung</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3606,34 +3606,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>9,27 €/kg</t>
+          <t>18,60 €/kg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
+          <t>Choco Moment Schoko-Erdnüsse</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3643,34 +3643,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>9,58 €/kg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Snacks of the World Nüsse und Rosinen</t>
+          <t>Choco Moment Schokoladenrosinen</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3680,34 +3680,34 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>7,75 €/kg</t>
+          <t>6,38 €/kg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Snacks of the World Macadamia-Nussmischung</t>
+          <t>Snacks of the World Herzhafter Reissnack Kyoto Style</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3717,34 +3717,34 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>9,27 €/kg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Snacks of the World Snackmix</t>
+          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>225 g | Verschiedene Varianten</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3754,34 +3754,34 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>8,36 €/kg</t>
+          <t>7,51 €/kg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3791,34 +3791,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>9,93 €/kg</t>
+          <t>7,00 €/kg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
+          <t>Snacks of the World Wasabi-Erdnüsse</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3828,24 +3828,24 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>8,40 €/kg</t>
+          <t>6,76 €/kg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Snacks of the World Pekan-Nussmischung</t>
+          <t>Snacks of the World Cashew &amp; Erdnuss-Mix Sweet BBQ</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3865,24 +3865,24 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>10,55 €/kg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
+          <t>Snacks of the World Sweet &amp; Spicy Mix</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3902,34 +3902,34 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>9,90 €/kg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne Gesalzen</t>
+          <t>Snacks of the World Snackmix</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>225 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3939,34 +3939,34 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>11,90 €/kg</t>
+          <t>8,36 €/kg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3976,34 +3976,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewkerne</t>
+          <t>Snacks of the World Pekan-Nussmischung</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,34 +4013,34 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>14,07 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Erdnüsse</t>
+          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4050,34 +4050,34 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Snacks of the World Gesalzene Erdnüsse</t>
+          <t>Snacks of the World Pistazienmischung</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4087,34 +4087,34 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne</t>
+          <t>Snacks of the World Macadamia-Nussmischung</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4124,34 +4124,34 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>14,07 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Snacks of the World Cashewkerne Gesalzen</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4161,34 +4161,34 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>6,23 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Snacks of the World Chili Cracker Spicy</t>
+          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4198,34 +4198,34 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>11,07 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Snacks of the World Wasabi-Erdnüsse</t>
+          <t>Snacks of the World Ungesalzene Cashewkerne</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4235,34 +4235,34 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>7,56 €/kg</t>
+          <t>14,07 €/kg</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Natural Happiness Salatmix</t>
+          <t>Snacks of the World Ungesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>75 Gramm | verschiedene Varianten</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4272,30 +4272,34 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>13,20 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3011936</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>Snacks of the World Gesalzene Erdnüsse</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>375 g</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4305,34 +4309,34 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>7,63 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss- und Bananenmischung</t>
+          <t>Snacks of the World Cashewkerne</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4342,34 +4346,34 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>9,97 €/kg</t>
+          <t>14,07 €/kg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss-Fruchtmischung</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4379,34 +4383,34 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>6,23 €/kg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Natural Happiness Proteinmischung</t>
+          <t>Snacks of the World Chili Cracker Spicy</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4416,34 +4420,34 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>11,07 €/kg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Natural Happiness Cashewkerne ungesalzen</t>
+          <t>Snacks of the World Nüsse und Rosinen</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4453,24 +4457,24 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>7,75 €/kg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Natural Happiness Nussmischung XL-Packung</t>
+          <t>Natural Happiness Nuss- und Bananenmischung</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4480,7 +4484,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4490,34 +4494,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>9,97 €/kg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
+          <t>Natural Happiness Nuss-Fruchtmischung</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4527,24 +4531,24 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Natural Happiness Proteinmischung</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4554,7 +4558,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4564,34 +4568,34 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Pekannusskerne</t>
+          <t>Natural Happiness Cashewkerne ungesalzen</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4601,34 +4605,34 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>22,90 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Mandeln</t>
+          <t>Natural Happiness Nussmischung XL-Packung</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4638,34 +4642,34 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Walnüsse</t>
+          <t>Natural Happiness Mandeln XL-Packung</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4675,34 +4679,34 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Natural Happiness Walnüsse XL-Packung</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4712,256 +4716,256 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>7,93 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Czekoladowe kulki Choco Moment</t>
+          <t>Natural Happiness Raw Nussmischung</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Różne warianty</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>74,60 zł/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
+          <t>Natural Happiness Salatmix</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>75 Gramm | verschiedene Varianten</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>68,60 zł/kg</t>
+          <t>13,20 €/kg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Natural Happiness Raw Pekannusskerne</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>22,90 €/kg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>150 gramów | Różne smaki</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Choco Moment</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>150 gramów | Różne warianty</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>83,93 zł/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
+          <t>Natural Happiness Chiasamen</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>73,27 zł/kg</t>
+          <t>7,93 €/kg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
+          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>260 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4971,34 +4975,34 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>43,42 zł/kg</t>
+          <t>68,60 zł/kg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Rodzynki w czekoladzie Choco Moment</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5008,34 +5012,34 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>34,58 zł/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Miks przekąsek Snacks of the World</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>225 gramów | Różne warianty</t>
+          <t>150 gramów | Różne smaki</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5045,34 +5049,34 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>37,73 zł/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
+          <t>Czekoladowe kulki Choco Moment</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5082,34 +5086,34 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>43,27 zł/kg</t>
+          <t>74,60 zł/kg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
+          <t>Mieszanka orzechów Choco Moment</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>100 gramów</t>
+          <t>150 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5119,34 +5123,34 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>54,90 zł/kg</t>
+          <t>83,93 zł/kg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
+          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>500 gramów</t>
+          <t>260 gramów</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>26.79</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5156,34 +5160,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>53,58 zł/kg</t>
+          <t>43,42 zł/kg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Mieszanka krakersów ryżowych Snacks of the World Kyoto Style</t>
+          <t>Rodzynki w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5193,12 +5197,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>33,00 zł/kg</t>
+          <t>34,58 zł/kg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5224,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5230,34 +5234,34 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>39,07 zł/kg</t>
+          <t>33,73 zł/kg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów pekan Snacks of the World</t>
+          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5267,34 +5271,34 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>30,36 zł/kg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
+          <t>Orzeszki ziemne wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5304,34 +5308,34 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>42,45 zł/kg</t>
+          <t>27,80 zł/kg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów makadamia Snacks of the World</t>
+          <t>Orzechy nerkowca Snacks of the World Solone</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>500 gramów</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>26.79</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5341,34 +5345,34 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>53,58 zł/kg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
+          <t>Miks przekąsek Snacks of the World</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>225 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5378,34 +5382,34 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>47,95 zł/kg</t>
+          <t>37,73 zł/kg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>150 gramów | niesolone</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5415,34 +5419,34 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>58,60 zł/kg</t>
+          <t>43,27 zł/kg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3205652</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Niesolone orzeszki ziemne Snacks of the World</t>
+          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>100 gramów</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5452,34 +5456,34 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>54,90 zł/kg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Solone orzeszki ziemne Snacks of the World</t>
+          <t>Mieszanka krakersów ryżowych Snacks of the World Kyoto Style</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5489,34 +5493,34 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>33,00 zł/kg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka orzechów pekan Snacks of the World</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5526,34 +5530,34 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>58,60 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Pikantna mieszanka Snacks of the World</t>
+          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>400 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5563,34 +5567,34 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>24,88 zł/kg</t>
+          <t>42,45 zł/kg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
+          <t>Mieszanka orzechów Snacks of the World</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5600,34 +5604,34 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>33,96 zł/kg</t>
+          <t>47,45 zł/kg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Krakersy chilli Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów makadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5637,34 +5641,34 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>46,33 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne wasabi Snacks of the World</t>
+          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5674,34 +5678,34 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>31,80 zł/kg</t>
+          <t>47,95 zł/kg</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Orzechy i rodzynki Snacks of the World</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>150 gramów | niesolone</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5711,34 +5715,34 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>31,95 zł/kg</t>
+          <t>57,00 zł/kg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mieszanka sałatkowa Natural Happiness</t>
+          <t>Niesolone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>75 gramów | różne warianty</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5748,34 +5752,34 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>59,87 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3011936</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mieszanka daktyli, pestek i orzechów Natural Happiness</t>
+          <t>Solone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5785,34 +5789,34 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>39,83 zł/kg</t>
+          <t>19,71 zł/kg</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i bananów Natural Happiness</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5822,34 +5826,34 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>46,50 zł/kg</t>
+          <t>57,00 zł/kg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i owoców Natural Happiness</t>
+          <t>Pikantna mieszanka Snacks of the World</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>400 gramów</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5859,34 +5863,34 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>44,60 zł/kg</t>
+          <t>24,88 zł/kg</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
+          <t>Krakersy chilli Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5896,34 +5900,34 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>49,93 zł/kg</t>
+          <t>46,33 zł/kg</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
+          <t>Orzechy i rodzynki Snacks of the World</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5933,24 +5937,24 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>54,83 zł/kg</t>
+          <t>31,95 zł/kg</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>3011936</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
+          <t>Mieszanka daktyli, pestek i orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5960,7 +5964,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5970,24 +5974,24 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>49,83 zł/kg</t>
+          <t>39,83 zł/kg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Migdały opakowanie XL Natural Happiness</t>
+          <t>Mieszanka orzechów i bananów Natural Happiness</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5997,7 +6001,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6007,34 +6011,34 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>46,30 zł/kg</t>
+          <t>46,50 zł/kg</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Orzechy włoskie Natural Happiness</t>
+          <t>Mieszanka orzechów i owoców Natural Happiness</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>13.99</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6044,34 +6048,34 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>46,63 zł/kg</t>
+          <t>44,60 zł/kg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Migdały Natural Happiness Raw</t>
+          <t>Mieszanka orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6081,34 +6085,34 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>46,60 zł/kg</t>
+          <t>49,93 zł/kg</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Orzechy włoskie Natural Happiness Raw</t>
+          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>100 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6118,49 +6122,308 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>59,50 zł/kg</t>
+          <t>54,83 zł/kg</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>3003153</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Mieszanka orzechów Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>49,83 zł/kg</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2581335</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Migdały opakowanie XL Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>46,30 zł/kg</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2581329</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Orzechy włoskie Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>46,63 zł/kg</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2581020</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Mieszanka orzechów Natural Happiness Raw</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>150 gramów</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>63,27 zł/kg</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2577634</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Mieszanka sałatkowa Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>75 gramów | różne warianty</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>59,87 zł/kg</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2572372</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Migdały Natural Happiness Raw</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>150 gramów</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>46,60 zł/kg</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2572352</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Orzechy włoskie Natural Happiness Raw</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>100 gramów</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>59,50 zł/kg</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
           <t>2572286</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Nasiona chia Natural Happiness</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>150 gramów</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>5.49</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>pl</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>36,60 zł/kg</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>

--- a/Web Scraping/Action_data.xlsx
+++ b/Web Scraping/Action_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Choco Moment clusters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150 gram | diverse smaken</t>
+          <t>Diverse varianten</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,34 +535,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>€ 12,53/kg</t>
+          <t>€ 15,93/kg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choco Moment clusters</t>
+          <t>Choco Moment notenmix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Diverse varianten</t>
+          <t>150 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,34 +572,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>€ 15,93/kg</t>
+          <t>€ 17,93/kg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choco Moment notenmix</t>
+          <t>Choco Moment chocoladepinda's</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianten</t>
+          <t>260 gram</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,24 +609,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>€ 17,93/kg</t>
+          <t>€ 7,23/kg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladepinda's</t>
+          <t>Choco Moment chocoladerozijnen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,34 +646,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>€ 7,23/kg</t>
+          <t>€ 8,81/kg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladerozijnen</t>
+          <t>Snacks of the World honing cashew- en pindamix</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>260 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,34 +683,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>€ 6,73/kg</t>
+          <t>€ 8,45/kg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Snacks of the World Chilli Crackers Spicy</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>400 gram</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,24 +720,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>€ 9,67/kg</t>
+          <t>€ 5,60/kg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
+          <t>Snacks of the World wasabistijl pinda's</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -762,29 +762,29 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Snacks of the World sriracha pindabollen Spicy</t>
+          <t>Snacks of the World Cashew &amp; Peanut Mix Sweet BBQ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>225 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -794,34 +794,34 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>€ 6,62/kg</t>
+          <t>€ 9,45/kg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Snacks of the World wasabistijl pinda's</t>
+          <t>Snacks of the World Sweet &amp; Spicy mix</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -831,34 +831,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>€ 6,76/kg</t>
+          <t>€ 9,90/kg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew &amp; Peanut Mix Sweet BBQ</t>
+          <t>Snacks of the World snackmix</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>225 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -868,34 +868,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>€ 9,90/kg</t>
+          <t>€ 8,36/kg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3217981</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Snacks of the World Sweet &amp; Spicy mix</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,24 +905,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>€ 9,90/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Snacks of the World cashewnoten gezouten</t>
+          <t>Snacks of the World ongezouten cashewnoten XL-pack</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Snacks of the World snackmix</t>
+          <t>Snacks of the World sriracha pindabollen Spicy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>225 gram | diverse varianten</t>
+          <t>225 gram</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -979,34 +979,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>€ 8,36/kg</t>
+          <t>€ 7,96/kg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World pecan-notenmix</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,34 +1016,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Snacks of the World rijstzoutjes mix Kyoto Style</t>
+          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,24 +1053,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>€ 6,60/kg</t>
+          <t>€ 9,45/kg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Snacks of the World pecan-notenmix</t>
+          <t>Snacks of the World macadamia notenmix</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1095,29 +1095,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
+          <t>Snacks of the World ongezouten cashewnoten</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1127,34 +1127,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 11,67/kg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Snacks of the World pistache mix</t>
+          <t>Snacks of the World ongezouten pinda's</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>375 gram</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,34 +1164,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 4,77/kg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Snacks of the World macadamia notenmix</t>
+          <t>Snacks of the World gezouten pinda's</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>375 gram</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1201,34 +1201,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 4,77/kg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Snacks of the World honing cashew- en pindamix</t>
+          <t>Snacks of the World cashewnoten</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1238,34 +1238,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 11,67/kg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten</t>
+          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1275,34 +1275,34 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>€ 11,67/kg</t>
+          <t>€ 7,40/kg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten pinda's</t>
+          <t>Snacks of the World Chilli Crackers Spicy</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>375 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1312,34 +1312,34 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>€ 4,77/kg</t>
+          <t>€ 9,67/kg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Snacks of the World gezouten pinda's</t>
+          <t>Snacks of the World noten en rozijnen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>375 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1349,34 +1349,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>€ 4,77/kg</t>
+          <t>€ 7,20/kg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Snacks of the World cashewnoten</t>
+          <t>Natural Happiness noten &amp; bananen mix</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1386,34 +1386,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>€ 11,67/kg</t>
+          <t>€ 8,97/kg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Natural Happiness notenmix</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1423,34 +1423,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>€ 6,23/kg</t>
+          <t>€ 9,83/kg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Snacks of the World noten en rozijnen</t>
+          <t>Natural Happiness amandelen XL-pack</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1460,24 +1460,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>€ 7,20/kg</t>
+          <t>€ 8,83/kg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Natural Happiness noten &amp; bananen mix</t>
+          <t>Natural Happiness walnoten XL-pack</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>€ 9,97/kg</t>
+          <t>€ 9,83/kg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 9,67/kg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
@@ -1613,29 +1613,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Natural Happiness notenmix</t>
+          <t>Natural Happiness notenmix Raw</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1645,34 +1645,34 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>€ 11,63/kg</t>
+          <t>€ 11,93/kg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen XL-pack</t>
+          <t>Natural Happiness Salad Mix</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>75 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1682,34 +1682,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>€ 9,83/kg</t>
+          <t>€ 13,20/kg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten XL-pack</t>
+          <t>Natural Happiness amandelen Raw</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1719,34 +1719,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>€ 10,97/kg</t>
+          <t>€ 9,80/kg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Natural Happiness notenmix Raw</t>
+          <t>Natural Happiness walnoten Raw</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1756,34 +1756,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 12,80/kg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Natural Happiness Salad Mix</t>
+          <t>Natural Happiness chiazaad</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>75 gram | diverse varianten</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1793,145 +1793,145 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>€ 13,20/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen Raw</t>
+          <t>Clusters Choco Moment</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>Diverses saveurs</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>€ 9,80/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten Raw</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>100 gram</t>
+          <t>150 grammes | Divers parfums</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>€ 12,80/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Natural Happiness chiazaad</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>150 g | Divers parfums</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Divers modèles</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1941,34 +1941,34 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15,93 €/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Cacahuètes au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 g | Divers parfums</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1978,34 +1978,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>9,58 €/kg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Raisins secs au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>150 grammes | Divers parfums</t>
+          <t>260 grammes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2015,34 +2015,34 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>9,58 €/kg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Clusters Choco Moment</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Diverses saveurs</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2052,34 +2052,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>17,27 €/kg</t>
+          <t>8,45 €/kg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment</t>
+          <t>Mélange apéritif Snacks of the World Hot Mix</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>150 g | Divers modèles</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2089,34 +2089,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>5,60 €/kg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cacahuètes au chocolat Choco Moment</t>
+          <t>Cacahuètes au wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2126,29 +2126,29 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>9,58 €/kg</t>
+          <t>6,76 €/kg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Raisins secs au chocolat Choco Moment</t>
+          <t>Mélange de cachuètes et noix de cajou Snacks of the World Sweet BBQ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>260 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2163,34 +2163,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7,65 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
+          <t>Sweet &amp; Spicy mix Snacks of the World</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>225 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2200,34 +2200,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>7,78 €/kg</t>
+          <t>9,90 €/kg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
+          <t>Mélange de gâteaux apéritifs Snacks of the World</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>250 grammes</t>
+          <t>225 g | Divers modèles</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,34 +2237,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>7,00 €/kg</t>
+          <t>8,76 €/kg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cacahuètes au wasabi Snacks of the World</t>
+          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2274,34 +2274,34 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6,76 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3205652</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mélange de cachuètes et noix de cajou Snacks of the World Sweet BBQ</t>
+          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2311,34 +2311,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10,55 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3217981</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sweet &amp; Spicy mix Snacks of the World</t>
+          <t>Noix de cajou non salées format XL Snacks of the World</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2348,34 +2348,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9,90 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées format XL Snacks of the World</t>
+          <t>Crackers de riz Snacks of the World Style Kyoto</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2385,34 +2385,34 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>11,90 €/kg</t>
+          <t>8,60 €/kg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mélange de gâteaux apéritifs Snacks of the World</t>
+          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>225 g | Divers modèles</t>
+          <t>225 grammes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2422,34 +2422,34 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8,76 €/kg</t>
+          <t>8,67 €/kg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
+          <t>Mélange de noix de pécan Snacks of the World</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2459,34 +2459,34 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2496,34 +2496,34 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Crackers de riz Snacks of the World Style Kyoto</t>
+          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2533,24 +2533,24 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8,60 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mélange de noix de pécan Snacks of the World</t>
+          <t>Mélange de noix de macadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,34 +2570,34 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
+          <t>Noix de cajou salées Snacks of the World</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2607,34 +2607,34 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>10,78 €/kg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
+          <t>Noix de cajou non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,34 +2644,34 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mélange de noix de macadamia Snacks of the World</t>
+          <t>Cacahuètes non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2681,34 +2681,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Noix de cajou salées Snacks of the World</t>
+          <t>Cacahuètes salées Snacks of the World</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2718,34 +2718,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10,78 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
+          <t>Noix de cajou Snacks of the World</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2755,34 +2755,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées Snacks of the World</t>
+          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>250 grammes</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,34 +2792,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11,67 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cacahuètes non salées Snacks of the World</t>
+          <t>Craquelins au piment Snacks of the World</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2829,34 +2829,34 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,93 €/kg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cacahuètes salées Snacks of the World</t>
+          <t>Noix et raisins Snacks of the World</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2866,34 +2866,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>6,95 €/kg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Noix de cajou Snacks of the World</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2903,34 +2903,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>11,67 €/kg</t>
+          <t>11,97 €/kg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mélange apéritif Snacks of the World Hot Mix</t>
+          <t>Cerneaux de noix Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2940,34 +2940,34 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6,23 €/kg</t>
+          <t>10,37 €/kg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Craquelins au piment Snacks of the World</t>
+          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2977,34 +2977,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11,93 €/kg</t>
+          <t>10,47 €/kg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Noix et raisins Snacks of the World</t>
+          <t>Amandes Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3014,19 +3014,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>6,95 €/kg</t>
+          <t>9,97 €/kg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3036,12 +3036,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3051,24 +3051,24 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
+          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3088,34 +3088,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Noix de cajou Natural Happiness Sans sel</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3125,34 +3125,34 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
+          <t>Mélange de fruits secs Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3162,34 +3162,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Noix de cajou Natural Happiness Sans sel</t>
+          <t>Mélange de croûtons pour salade Natural Happiness</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>75 g | diverses saveurs</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3199,34 +3199,34 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>13,20 €/kg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness format XL</t>
+          <t>Amandes Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3236,34 +3236,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness format XL</t>
+          <t>Cerneaux de noix Natural Happiness</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3273,34 +3273,34 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness Raw</t>
+          <t>Graines de chia Natural Happiness</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3310,182 +3310,182 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mélange de croûtons pour salade Natural Happiness</t>
+          <t>Choco Moment Cluster</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>75 g | diverses saveurs</t>
+          <t>Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>13,20 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness Raw</t>
+          <t>Choco Moment Nussmischung</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>18,60 €/kg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness</t>
+          <t>Choco Moment Schoko-Erdnüsse</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>9,58 €/kg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Graines de chia Natural Happiness</t>
+          <t>Choco Moment Schokoladenrosinen</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>8,42 €/kg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3495,34 +3495,34 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>8,45 €/kg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Sorten</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3532,34 +3532,34 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>5,60 €/kg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Choco Moment Cluster</t>
+          <t>Snacks of the World Wasabi-Erdnüsse</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Verschiedene Varianten</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3569,34 +3569,34 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>6,76 €/kg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Choco Moment Nussmischung</t>
+          <t>Snacks of the World Cashew &amp; Erdnuss-Mix Sweet BBQ</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3606,34 +3606,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>18,60 €/kg</t>
+          <t>9,45 €/kg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Choco Moment Schoko-Erdnüsse</t>
+          <t>Snacks of the World Sweet &amp; Spicy Mix</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3643,34 +3643,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>9,58 €/kg</t>
+          <t>9,90 €/kg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Choco Moment Schokoladenrosinen</t>
+          <t>Snacks of the World Snackmix</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>225 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3680,24 +3680,24 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>6,38 €/kg</t>
+          <t>8,36 €/kg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Snacks of the World Herzhafter Reissnack Kyoto Style</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3717,34 +3717,34 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>9,27 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
+          <t>Snacks of the World Ungesalzene Cashewnüsse XL-Pack</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3754,34 +3754,34 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>7,51 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
+          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3791,34 +3791,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>7,00 €/kg</t>
+          <t>8,40 €/kg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Snacks of the World Wasabi-Erdnüsse</t>
+          <t>Snacks of the World Pekan-Nussmischung</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3828,24 +3828,24 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>6,76 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew &amp; Erdnuss-Mix Sweet BBQ</t>
+          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3865,24 +3865,24 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>10,55 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3217981</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Snacks of the World Sweet &amp; Spicy Mix</t>
+          <t>Snacks of the World Pistazienmischung</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3902,34 +3902,34 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>9,90 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Snacks of the World Snackmix</t>
+          <t>Snacks of the World Macadamia-Nussmischung</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>225 g | Verschiedene Varianten</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3939,34 +3939,34 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>8,36 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World Cashewkerne Gesalzen</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3976,34 +3976,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>9,93 €/kg</t>
+          <t>11,90 €/kg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Snacks of the World Pekan-Nussmischung</t>
+          <t>Snacks of the World Ungesalzene Cashewkerne</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,34 +4013,34 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>14,07 €/kg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
+          <t>Snacks of the World Ungesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4050,34 +4050,34 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Snacks of the World Pistazienmischung</t>
+          <t>Snacks of the World Gesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4087,34 +4087,34 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Snacks of the World Macadamia-Nussmischung</t>
+          <t>Snacks of the World Cashewkerne</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4124,34 +4124,34 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>14,07 €/kg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne Gesalzen</t>
+          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4161,34 +4161,34 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>11,90 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
+          <t>Snacks of the World Chili Cracker Spicy</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4198,34 +4198,34 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>11,07 €/kg</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewkerne</t>
+          <t>Snacks of the World Nüsse und Rosinen</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4235,34 +4235,34 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>14,07 €/kg</t>
+          <t>7,75 €/kg</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Erdnüsse</t>
+          <t>Natural Happiness Nuss- und Bananenmischung</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4272,34 +4272,34 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>8,97 €/kg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Snacks of the World Gesalzene Erdnüsse</t>
+          <t>Natural Happiness Nussmischung XL-Packung</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4309,34 +4309,34 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>9,83 €/kg</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne</t>
+          <t>Natural Happiness Mandeln XL-Packung</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4346,34 +4346,34 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>14,07 €/kg</t>
+          <t>9,97 €/kg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Natural Happiness Walnüsse XL-Packung</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4383,24 +4383,24 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>6,23 €/kg</t>
+          <t>9,83 €/kg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Snacks of the World Chili Cracker Spicy</t>
+          <t>Natural Happiness Nuss-Fruchtmischung</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4420,34 +4420,34 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>11,07 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Snacks of the World Nüsse und Rosinen</t>
+          <t>Natural Happiness Proteinmischung</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4457,24 +4457,24 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>7,75 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss- und Bananenmischung</t>
+          <t>Natural Happiness Cashewkerne ungesalzen</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4494,24 +4494,24 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>9,97 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss-Fruchtmischung</t>
+          <t>Natural Happiness Raw Nussmischung</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4531,34 +4531,34 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Natural Happiness Proteinmischung</t>
+          <t>Natural Happiness Salatmix</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>75 Gramm | verschiedene Varianten</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4568,34 +4568,34 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>13,20 €/kg</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Natural Happiness Cashewkerne ungesalzen</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4605,34 +4605,34 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Natural Happiness Nussmischung XL-Packung</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4642,34 +4642,34 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
+          <t>Natural Happiness Chiasamen</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4679,293 +4679,293 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>7,93 €/kg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>3011935</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Nussmischung</t>
+          <t>Choco Moment Crunchies Sundae</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 gramów | Różne smaki</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Natural Happiness Salatmix</t>
+          <t>Czekoladowe kulki Choco Moment</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>75 Gramm | verschiedene Varianten</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>13,20 €/kg</t>
+          <t>74,60 zł/kg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Pekannusskerne</t>
+          <t>Mieszanka orzechów Choco Moment</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>22,90 €/kg</t>
+          <t>83,93 zł/kg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Mandeln</t>
+          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>260 gramów</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>43,42 zł/kg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Walnüsse</t>
+          <t>Rodzynki w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>38,27 zł/kg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>7,93 €/kg</t>
+          <t>37,95 zł/kg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
+          <t>Pikantna mieszanka Snacks of the World</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>400 gramów</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4975,34 +4975,34 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>68,60 zł/kg</t>
+          <t>22,38 zł/kg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Orzeszki ziemne wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5012,34 +5012,34 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>27,80 zł/kg</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3011935</t>
+          <t>3209375</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Choco Moment Crunchies Sundae</t>
+          <t>Miks przekąsek Snacks of the World</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>150 gramów | Różne smaki</t>
+          <t>225 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5049,34 +5049,34 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>37,73 zł/kg</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Czekoladowe kulki Choco Moment</t>
+          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Różne warianty</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5086,34 +5086,34 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>74,60 zł/kg</t>
+          <t>43,27 zł/kg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Choco Moment</t>
+          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>150 gramów | Różne warianty</t>
+          <t>500 gramów</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>26.79</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5123,34 +5123,34 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>83,93 zł/kg</t>
+          <t>53,58 zł/kg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3201393</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
+          <t>Mieszanka krakersów ryżowych Snacks of the World Kyoto Style</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>260 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5160,34 +5160,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>43,42 zł/kg</t>
+          <t>33,00 zł/kg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Rodzynki w czekoladzie Choco Moment</t>
+          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>225 gramów</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5197,34 +5197,34 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>34,58 zł/kg</t>
+          <t>39,07 zł/kg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów pekan Snacks of the World</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>225 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5234,34 +5234,34 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>33,73 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
+          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5271,34 +5271,34 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>30,36 zł/kg</t>
+          <t>42,45 zł/kg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne wasabi Snacks of the World</t>
+          <t>Mieszanka orzechów Snacks of the World</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5308,34 +5308,34 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>27,80 zł/kg</t>
+          <t>47,45 zł/kg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World Solone</t>
+          <t>Mieszanka orzechów makadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>500 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>26.79</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5345,34 +5345,34 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>53,58 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Miks przekąsek Snacks of the World</t>
+          <t>Orzechy nerkowca Snacks of the World Solone</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>225 gramów | Różne warianty</t>
+          <t>500 gramów</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>26.79</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5382,34 +5382,34 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>37,73 zł/kg</t>
+          <t>53,58 zł/kg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>150 gramów | niesolone</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5419,34 +5419,34 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>43,27 zł/kg</t>
+          <t>57,00 zł/kg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
+          <t>Niesolone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>100 gramów</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5456,34 +5456,34 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>54,90 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3201393</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mieszanka krakersów ryżowych Snacks of the World Kyoto Style</t>
+          <t>Solone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5493,34 +5493,34 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>33,00 zł/kg</t>
+          <t>19,71 zł/kg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów pekan Snacks of the World</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5530,29 +5530,29 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>57,00 zł/kg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
+          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5567,34 +5567,34 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>42,45 zł/kg</t>
+          <t>33,96 zł/kg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Snacks of the World</t>
+          <t>Krakersy chilli Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5604,34 +5604,34 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>47,45 zł/kg</t>
+          <t>46,33 zł/kg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów makadamia Snacks of the World</t>
+          <t>Orzechy i rodzynki Snacks of the World</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5641,34 +5641,34 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>31,95 zł/kg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
+          <t>Mieszanka orzechów i bananów Natural Happiness</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5678,34 +5678,34 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>47,95 zł/kg</t>
+          <t>41,83 zł/kg</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>150 gramów | niesolone</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5715,34 +5715,34 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>57,00 zł/kg</t>
+          <t>41,63 zł/kg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Niesolone orzeszki ziemne Snacks of the World</t>
+          <t>Migdały opakowanie XL Natural Happiness</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5752,34 +5752,34 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>41,63 zł/kg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Solone orzeszki ziemne Snacks of the World</t>
+          <t>Orzechy włoskie Natural Happiness</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5789,34 +5789,34 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>19,71 zł/kg</t>
+          <t>41,63 zł/kg</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3011936</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka daktyli, pestek i orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5826,34 +5826,34 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>57,00 zł/kg</t>
+          <t>39,83 zł/kg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Pikantna mieszanka Snacks of the World</t>
+          <t>Mieszanka orzechów i owoców Natural Happiness</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>400 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5863,34 +5863,34 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>24,88 zł/kg</t>
+          <t>44,60 zł/kg</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Krakersy chilli Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5900,34 +5900,34 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>46,33 zł/kg</t>
+          <t>49,93 zł/kg</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Orzechy i rodzynki Snacks of the World</t>
+          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5937,34 +5937,34 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>31,95 zł/kg</t>
+          <t>54,83 zł/kg</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3011936</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mieszanka daktyli, pestek i orzechów Natural Happiness</t>
+          <t>Mieszanka orzechów Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5974,34 +5974,34 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>39,83 zł/kg</t>
+          <t>63,27 zł/kg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i bananów Natural Happiness</t>
+          <t>Mieszanka sałatkowa Natural Happiness</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>75 gramów | różne warianty</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6011,24 +6011,24 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>46,50 zł/kg</t>
+          <t>59,87 zł/kg</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i owoców Natural Happiness</t>
+          <t>Migdały Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6048,34 +6048,34 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>44,60 zł/kg</t>
+          <t>46,60 zł/kg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
+          <t>Orzechy włoskie Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>100 gramów</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6085,34 +6085,34 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>49,93 zł/kg</t>
+          <t>59,50 zł/kg</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
+          <t>Nasiona chia Natural Happiness</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6122,308 +6122,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>54,83 zł/kg</t>
+          <t>36,60 zł/kg</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>3003153</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>49,83 zł/kg</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2581335</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Migdały opakowanie XL Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>46,30 zł/kg</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2581329</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Orzechy włoskie Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>13.99</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>46,63 zł/kg</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2581020</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Mieszanka orzechów Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>63,27 zł/kg</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2577634</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Mieszanka sałatkowa Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>75 gramów | różne warianty</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>59,87 zł/kg</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2572372</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Migdały Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>46,60 zł/kg</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2572352</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Orzechy włoskie Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>100 gramów</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>59,50 zł/kg</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2572286</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Nasiona chia Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>36,60 zł/kg</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>

--- a/Web Scraping/Action_data.xlsx
+++ b/Web Scraping/Action_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3218253</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choco Moment clusters</t>
+          <t>Choco Moment knapperige balletjes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Diverse varianten</t>
+          <t>135 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,34 +498,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>€ 15,93/kg</t>
+          <t>€ 17,70/kg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3218252</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choco Moment notenmix</t>
+          <t>Choco Moment knapperige balletjes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianten</t>
+          <t>135 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,34 +535,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>€ 17,93/kg</t>
+          <t>€ 17,70/kg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladenoten Special Edition</t>
+          <t>Choco Moment clusters</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianen</t>
+          <t>Diverse varianten</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,34 +572,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>€ 18,60/kg</t>
+          <t>€ 15,93/kg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladepinda's</t>
+          <t>Choco Moment notenmix</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>260 gram</t>
+          <t>150 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,34 +609,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>€ 7,50/kg</t>
+          <t>€ 17,93/kg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladerozijnen</t>
+          <t>Choco Moment chocoladenoten Special Edition</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>260 gram</t>
+          <t>150 gram | diverse varianen</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,34 +646,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>€ 8,81/kg</t>
+          <t>€ 18,60/kg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten</t>
+          <t>Choco Moment chocoladepinda's</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>260 gram</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,34 +683,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>€ 11,67/kg</t>
+          <t>€ 7,50/kg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Snacks of the World Chilli Crackers Spicy</t>
+          <t>Choco Moment chocoladerozijnen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>260 gram</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,34 +720,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>€ 9,67/kg</t>
+          <t>€ 8,81/kg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
+          <t>Snacks of the World ongezouten cashewnoten</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,24 +757,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>€ 7,40/kg</t>
+          <t>€ 12,60/kg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
+          <t>Snacks of the World pecan-notenmix</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -794,34 +794,34 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Snacks of the World pecan-notenmix</t>
+          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -831,34 +831,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 7,40/kg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Snacks of the World honing cashew- en pindamix</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -868,24 +868,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>€ 6,23/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Snacks of the World noten en rozijnen</t>
+          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,24 +905,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>€ 8,25/kg</t>
+          <t>€ 9,45/kg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Snacks of the World macadamia notenmix</t>
+          <t>Snacks of the World pistache mix</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -942,24 +942,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 10,95/kg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew &amp; Peanut Mix Sweet BBQ</t>
+          <t>Snacks of the World macadamia notenmix</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -979,34 +979,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3217981</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Snacks of the World Sweet &amp; Spicy mix</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>400 gram</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,34 +1016,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>€ 9,90/kg</t>
+          <t>€ 5,60/kg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World Cashew &amp; Peanut Mix Sweet BBQ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,34 +1053,34 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 9,45/kg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Snacks of the World sriracha pindabollen Spicy</t>
+          <t>Snacks of the World Sweet &amp; Spicy mix</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>225 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1090,34 +1090,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>€ 8,40/kg</t>
+          <t>€ 9,90/kg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Snacks of the World pistache mix</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1127,34 +1127,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Snacks of the World honing cashew- en pindamix</t>
+          <t>Snacks of the World sriracha pindabollen Spicy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>225 gram</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 8,40/kg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>€ 4,77/kg</t>
+          <t>€ 5,04/kg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1238,24 +1238,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>€ 4,77/kg</t>
+          <t>€ 5,04/kg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Snacks of the World cashewnoten</t>
+          <t>Snacks of the World Chilli Crackers Spicy</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>€ 11,67/kg</t>
+          <t>€ 9,67/kg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1354,29 +1354,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Natural Happiness noten &amp; bananen mix</t>
+          <t>Natural Happiness noten &amp; fruit mix</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1386,34 +1386,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>€ 9,97/kg</t>
+          <t>€ 9,67/kg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Natural Happiness noten &amp; fruit mix</t>
+          <t>Natural Happiness proteïnemix</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1423,24 +1423,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>€ 9,67/kg</t>
+          <t>€ 9,97/kg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Natural Happiness proteïnemix</t>
+          <t>Natural Happiness cashewnoten ongezouten</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1460,34 +1460,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>€ 9,97/kg</t>
+          <t>€ 11,63/kg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Natural Happiness cashewnoten ongezouten</t>
+          <t>Natural Happiness pijnboompitten</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>50 gram</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1497,34 +1497,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>€ 11,63/kg</t>
+          <t>€ 39,60/kg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen XL-pack</t>
+          <t>Natural Happiness Salad Mix</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>75 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1534,34 +1534,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>€ 9,83/kg</t>
+          <t>€ 13,20/kg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Natural Happiness pijnboompitten</t>
+          <t>Natural Happiness amandelen Raw</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>50 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1571,34 +1571,34 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>€ 39,60/kg</t>
+          <t>€ 11,00/kg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Natural Happiness Salad Mix</t>
+          <t>Natural Happiness walnoten Raw</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>75 gram | diverse varianten</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1608,145 +1608,145 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>€ 13,20/kg</t>
+          <t>€ 13,90/kg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3011937</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen Raw</t>
+          <t>Choco Moment Chocolate Crunch</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>150 g | Divers parfums</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>€ 11,00/kg</t>
+          <t>13,13 €/kg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten Raw</t>
+          <t>Clusters Choco Moment</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>100 gram</t>
+          <t>Diverses saveurs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>€ 12,80/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Natural Happiness chiazaad</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>150 g | Divers modèles</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>€ 10,60/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3011937</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Choco Moment Chocolate Crunch</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment Édition spéciale</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>150 g | Divers parfums</t>
+          <t>150 grammes | Diverses saveurs</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1756,34 +1756,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>13,13 €/kg</t>
+          <t>19,93 €/kg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment Édition spéciale</t>
+          <t>Cacahuètes au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>150 grammes | Diverses saveurs</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1793,34 +1793,34 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>19,93 €/kg</t>
+          <t>9,96 €/kg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Clusters Choco Moment</t>
+          <t>Raisins secs au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Diverses saveurs</t>
+          <t>260 grammes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1830,34 +1830,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>9,96 €/kg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment</t>
+          <t>Mélange apéritif Snacks of the World Hot Mix</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>150 g | Divers modèles</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1867,34 +1867,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>5,60 €/kg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cacahuètes au chocolat Choco Moment</t>
+          <t>Mélange de cachuètes et noix de cajou Snacks of the World Sweet BBQ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1904,34 +1904,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>9,96 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Raisins secs au chocolat Choco Moment</t>
+          <t>Sweet &amp; Spicy mix Snacks of the World</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>260 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1941,34 +1941,34 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>9,96 €/kg</t>
+          <t>9,90 €/kg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mélange de cachuètes et noix de cajou Snacks of the World Sweet BBQ</t>
+          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1978,34 +1978,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3217981</t>
+          <t>3205652</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sweet &amp; Spicy mix Snacks of the World</t>
+          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2015,34 +2015,34 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>9,90 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3209375</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mélange de gâteaux apéritifs Snacks of the World</t>
+          <t>Noix de cajou non salées format XL Snacks of the World</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>225 g | Divers modèles</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2052,34 +2052,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>8,84 €/kg</t>
+          <t>12,90 €/kg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
+          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>225 grammes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2089,34 +2089,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>8,84 €/kg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3205652</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Crispy Crackers Snacks of the World Sweet Chilli</t>
+          <t>Mélange de noix de pécan Snacks of the World</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2126,34 +2126,34 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées format XL Snacks of the World</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2163,34 +2163,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>12,90 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
+          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>225 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2200,24 +2200,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>8,84 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mélange de noix de pécan Snacks of the World</t>
+          <t>Mélange de noix de macadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,24 +2237,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>11,95 €/kg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2279,29 +2279,29 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
+          <t>Noix de cajou non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2311,34 +2311,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mélange de noix de macadamia Snacks of the World</t>
+          <t>Cacahuètes non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2348,34 +2348,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
+          <t>Cacahuètes salées Snacks of the World</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2385,34 +2385,34 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées Snacks of the World</t>
+          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>250 grammes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2422,34 +2422,34 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>11,67 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cacahuètes non salées Snacks of the World</t>
+          <t>Craquelins au piment Snacks of the World</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2459,34 +2459,34 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,93 €/kg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cacahuètes salées Snacks of the World</t>
+          <t>Cacahuètes au wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2496,34 +2496,34 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Noix de cajou Snacks of the World</t>
+          <t>Mélange noix et fruits secs Natural Happiness Tropical</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2533,34 +2533,34 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11,67 €/kg</t>
+          <t>12,44 €/kg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mélange apéritif Snacks of the World Hot Mix</t>
+          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,29 +2570,29 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>6,48 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>250 grammes</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2607,34 +2607,34 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Craquelins au piment Snacks of the World</t>
+          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,34 +2644,34 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11,93 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cacahuètes au wasabi Snacks of the World</t>
+          <t>Noix de cajou Natural Happiness Sans sel</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2681,34 +2681,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Noix et raisins Snacks of the World</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2718,34 +2718,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>6,95 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mélange noix et fruits secs Natural Happiness Tropical</t>
+          <t>Cerneaux de noix Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>175 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2755,34 +2755,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>12,44 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mélange de noix et de bananes séchées Natural Happiness</t>
+          <t>Pignons de pin Natural Happiness</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,34 +2792,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>45,80 €/kg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Mélange de croûtons pour salade Natural Happiness</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>75 g | diverses saveurs</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2829,34 +2829,34 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>13,20 €/kg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
+          <t>Amandes Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2866,34 +2866,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Noix de cajou Natural Happiness Sans sel</t>
+          <t>Cerneaux de noix Natural Happiness</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2903,330 +2903,330 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Choco Moment Cluster</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness format XL</t>
+          <t>Choco Moment Nussmischung</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness format XL</t>
+          <t>Choco Moment Schokonüsse Special Edition</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pignons de pin Natural Happiness</t>
+          <t>Choco Moment Schoko-Erdnüsse</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>45,80 €/kg</t>
+          <t>9,96 €/kg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mélange de croûtons pour salade Natural Happiness</t>
+          <t>Choco Moment Schokoladenrosinen</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>75 g | diverses saveurs</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>13,20 €/kg</t>
+          <t>8,42 €/kg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness Raw</t>
+          <t>Snacks of the World Pistazienmischung</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness</t>
+          <t>Snacks of the World Wasabi-Erdnüsse</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Graines de chia Natural Happiness</t>
+          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Choco Moment Cluster</t>
+          <t>Snacks of the World Gesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Verschiedene Varianten</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3236,34 +3236,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>5,31 €/kg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Choco Moment Nussmischung</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3273,34 +3273,34 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>5,60 €/kg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Choco Moment Schokonüsse Special Edition</t>
+          <t>Snacks of the World Cashew &amp; Erdnuss-Mix Sweet BBQ</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3310,34 +3310,34 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>9,45 €/kg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Choco Moment Schoko-Erdnüsse</t>
+          <t>Snacks of the World Sweet &amp; Spicy Mix</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3347,34 +3347,34 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>9,96 €/kg</t>
+          <t>9,90 €/kg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Choco Moment Schokoladenrosinen</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3384,34 +3384,34 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>8,42 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Snacks of the World Chili Cracker Spicy</t>
+          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3421,24 +3421,24 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>11,07 €/kg</t>
+          <t>8,84 €/kg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
+          <t>Snacks of the World Pekan-Nussmischung</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3458,24 +3458,24 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew &amp; Erdnuss-Mix Sweet BBQ</t>
+          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3495,24 +3495,24 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>9,45 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3217981</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Snacks of the World Sweet &amp; Spicy Mix</t>
+          <t>Snacks of the World Macadamia-Nussmischung</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3532,24 +3532,24 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>9,90 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World Ungesalzene Cashewkerne</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3569,29 +3569,29 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>14,07 €/kg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
+          <t>Snacks of the World Ungesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3606,34 +3606,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>8,84 €/kg</t>
+          <t>5,31 €/kg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Snacks of the World Pekan-Nussmischung</t>
+          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3643,34 +3643,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
+          <t>Snacks of the World Chili Cracker Spicy</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3680,34 +3680,34 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>11,07 €/kg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Snacks of the World Pistazienmischung</t>
+          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3717,34 +3717,34 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>12,44 €/kg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Snacks of the World Macadamia-Nussmischung</t>
+          <t>Natural Happiness Nuss- und Bananenmischung</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3754,24 +3754,24 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>9,97 €/kg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewkerne</t>
+          <t>Natural Happiness Nuss-Fruchtmischung</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3791,34 +3791,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>14,07 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Erdnüsse</t>
+          <t>Natural Happiness Proteinmischung</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3828,34 +3828,34 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,10 €/kg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Snacks of the World Gesalzene Erdnüsse</t>
+          <t>Natural Happiness Cashewkerne ungesalzen</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3865,34 +3865,34 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne</t>
+          <t>Natural Happiness Mandeln XL-Packung</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3902,34 +3902,34 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>14,07 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Natural Happiness Pinienkerne</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3939,34 +3939,34 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>6,48 €/kg</t>
+          <t>45,60 €/kg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
+          <t>Natural Happiness Salatmix</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>75 Gramm | verschiedene Varianten</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3976,34 +3976,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>13,20 €/kg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Snacks of the World Wasabi-Erdnüsse</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,34 +4013,34 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Snacks of the World Nüsse und Rosinen</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4050,12 +4050,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>7,75 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -4240,19 +4240,19 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Natural Happiness Nussmischung XL-Packung</t>
+          <t>Natural Happiness Mandeln XL-Packung</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4272,34 +4272,34 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>11,30 €/kg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
+          <t>Natural Happiness Pinienkerne</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4309,34 +4309,34 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>45,60 €/kg</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Natural Happiness Salatmix</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>75 Gramm | verschiedene Varianten</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4346,34 +4346,34 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>13,20 €/kg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Natural Happiness Pinienkerne</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4383,34 +4383,34 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>45,60 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Natural Happiness Salatmix</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>75 Gramm | verschiedene Varianten</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4420,626 +4420,626 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>13,20 €/kg</t>
+          <t>14,90 €/kg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Mandeln</t>
+          <t>Czekoladowe kulki Choco Moment</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>74,60 zł/kg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Walnüsse</t>
+          <t>Mieszanka orzechów Choco Moment</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>83,93 zł/kg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>260 gramów</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>7,93 €/kg</t>
+          <t>43,42 zł/kg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
+          <t>Rodzynki w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>175 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>12,44 €/kg</t>
+          <t>38,27 zł/kg</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3011698</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss- und Bananenmischung</t>
+          <t>Pikantna mieszanka Snacks of the World</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>400 gramów</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>9,97 €/kg</t>
+          <t>22,40 zł/kg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3217983</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss-Fruchtmischung</t>
+          <t>Mieszanka nerkowców i orzechów ziemnych Snacks of the World Sweet BBQ</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>49,75 zł/kg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>3217981</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Natural Happiness Proteinmischung</t>
+          <t>Sweet &amp; Spicy mix Snacks of the World</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11,10 €/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Natural Happiness Cashewkerne ungesalzen</t>
+          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>49,93 zł/kg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3003153</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Natural Happiness Nussmischung XL-Packung</t>
+          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>500 gramów</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>55,80 zł/kg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
+          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>225 gramów</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>39,07 zł/kg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Mieszanka orzechów pekan Snacks of the World</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>49,75 zł/kg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Natural Happiness Pinienkerne</t>
+          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>45,60 €/kg</t>
+          <t>42,45 zł/kg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Natural Happiness Salatmix</t>
+          <t>Mieszanka orzechów Snacks of the World</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>75 Gramm | verschiedene Varianten</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>13,20 €/kg</t>
+          <t>59,95 zł/kg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Mandeln</t>
+          <t>Mieszanka orzechów makadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>49,75 zł/kg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Walnüsse</t>
+          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>47,95 zł/kg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Niesolone orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>7,93 €/kg</t>
+          <t>57,00 zł/kg</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
+          <t>Niesolone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5049,34 +5049,34 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>73,27 zł/kg</t>
+          <t>23,87 zł/kg</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Czekoladowe kulki Choco Moment</t>
+          <t>Solone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Różne warianty</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5086,34 +5086,34 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>74,60 zł/kg</t>
+          <t>19,71 zł/kg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Choco Moment</t>
+          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>150 gramów | Różne warianty</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5123,34 +5123,34 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>83,93 zł/kg</t>
+          <t>33,96 zł/kg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
+          <t>Krakersy chilli Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>260 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5160,34 +5160,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>43,42 zł/kg</t>
+          <t>46,33 zł/kg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Rodzynki w czekoladzie Choco Moment</t>
+          <t>Orzeszki ziemne wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5197,34 +5197,34 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>38,27 zł/kg</t>
+          <t>35,80 zł/kg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3212867</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mieszanka nerkowców i orzechów ziemnych Snacks of the World Sweet BBQ</t>
+          <t>Mieszanka nasion i ziaren Natural Happiness</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5234,34 +5234,34 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>49,75 zł/kg</t>
+          <t>29,93 zł/kg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3217981</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sweet &amp; Spicy mix Snacks of the World</t>
+          <t>Mieszanka orzechów Natural Happiness Tropical</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5271,34 +5271,34 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>54,94 zł/kg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3011698</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
+          <t>Mieszanka orzechów i bananów Natural Happiness</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5308,34 +5308,34 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>49,93 zł/kg</t>
+          <t>46,50 zł/kg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
+          <t>Mieszanka orzechów i owoców Natural Happiness</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>500 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5345,34 +5345,34 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>55,80 zł/kg</t>
+          <t>44,60 zł/kg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>225 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5382,34 +5382,34 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>39,07 zł/kg</t>
+          <t>49,93 zł/kg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów pekan Snacks of the World</t>
+          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5419,34 +5419,34 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>45,83 zł/kg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
+          <t>Migdały opakowanie XL Natural Happiness</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5456,34 +5456,34 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>42,45 zł/kg</t>
+          <t>46,30 zł/kg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Snacks of the World</t>
+          <t>Orzeszki pinii Natural Happiness</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>50 gramów</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5493,34 +5493,34 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>47,45 zł/kg</t>
+          <t>159,00 zł/kg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2577634</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów makadamia Snacks of the World</t>
+          <t>Mieszanka sałatkowa Natural Happiness</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>75 gramów | różne warianty</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5530,34 +5530,34 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>49,75 zł/kg</t>
+          <t>59,87 zł/kg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
+          <t>Migdały Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5567,34 +5567,34 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>47,95 zł/kg</t>
+          <t>46,60 zł/kg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Niesolone orzechy nerkowca Snacks of the World</t>
+          <t>Orzechy włoskie Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>100 gramów</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5604,826 +5604,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>57,00 zł/kg</t>
+          <t>59,50 zł/kg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2581928</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Niesolone orzeszki ziemne Snacks of the World</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>375 gramów</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>19,71 zł/kg</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2581927</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Solone orzeszki ziemne Snacks of the World</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>375 gramów</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>19,71 zł/kg</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2577347</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>150 g</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>57,00 zł/kg</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2576500</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Pikantna mieszanka Snacks of the World</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>400 gramów</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>24,88 zł/kg</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2572356</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>250 gramów</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>33,96 zł/kg</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2572329</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Krakersy chilli Snacks of the World Pikantne</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>46,33 zł/kg</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2572327</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Orzeszki ziemne wasabi Snacks of the World</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>250 gramów</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>35,80 zł/kg</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2572300</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Orzechy i rodzynki Snacks of the World</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>200 gramów</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>31,95 zł/kg</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>3212867</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Mieszanka nasion i ziaren Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>29,93 zł/kg</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>3208739</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Mieszanka orzechów Natural Happiness Tropical</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>175 g</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>54,94 zł/kg</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>3011698</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Mieszanka orzechów i bananów Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>46,50 zł/kg</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>3011072</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Mieszanka orzechów i owoców Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>44,60 zł/kg</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>3011014</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>14.98</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>49,93 zł/kg</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>3003625</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>45,83 zł/kg</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>3003153</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>49,83 zł/kg</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2581335</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Migdały opakowanie XL Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>46,30 zł/kg</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2581329</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Orzechy włoskie Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>300 gramów</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>13.99</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>46,63 zł/kg</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2580351</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Orzeszki pinii Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>50 gramów</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>159,00 zł/kg</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2577634</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Mieszanka sałatkowa Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>75 gramów | różne warianty</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>59,87 zł/kg</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2572372</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Migdały Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>46,60 zł/kg</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2572352</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Orzechy włoskie Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>100 gramów</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>59,50 zł/kg</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2572286</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Nasiona chia Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>43,27 zł/kg</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>

--- a/Web Scraping/Action_data.xlsx
+++ b/Web Scraping/Action_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3218252</t>
+          <t>3208234</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choco Moment knapperige balletjes</t>
+          <t>Choco Moment chocolademix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135 gram | diverse varianten</t>
+          <t>Diverse varianten</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,34 +498,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>€ 17,70/kg</t>
+          <t>€ 14,60/kg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3218253</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladepinda's</t>
+          <t>Choco Moment knapperige balletjes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>260 gram</t>
+          <t>135 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,34 +535,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>€ 7,65/kg</t>
+          <t>€ 17,70/kg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3218252</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladerozijnen</t>
+          <t>Choco Moment knapperige balletjes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>260 gram</t>
+          <t>135 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,34 +572,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>€ 7,65/kg</t>
+          <t>€ 17,70/kg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3218253</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choco Moment knapperige balletjes</t>
+          <t>Choco Moment rozijnen met chocoladesmaak</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>135 gram | diverse varianten</t>
+          <t>260 gram</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,29 +609,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>€ 17,70/kg</t>
+          <t>€ 8,81/kg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3208234</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choco Moment chocolademix</t>
+          <t>Choco Moment cranberry-pindamix</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diverse varianten</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,29 +651,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Choco Moment notenmix</t>
+          <t>Choco Moment clusters</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianten</t>
+          <t>Diverse varianten</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,34 +683,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>€ 19,27/kg</t>
+          <t>€ 15,93/kg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Choco Moment chocoladenoten Special Edition</t>
+          <t>Choco Moment notenmix</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianen</t>
+          <t>150 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,34 +720,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>€ 19,27/kg</t>
+          <t>€ 17,27/kg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Snacks of the World Chilli Crackers Spicy</t>
+          <t>Choco Moment chocoladenoten Special Edition</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>150 gram | diverse varianen</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,34 +757,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>€ 9,67/kg</t>
+          <t>€ 19,27/kg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Choco Moment chocoladepinda's</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400 gram</t>
+          <t>260 gram</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -794,34 +794,34 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>€ 4,98/kg</t>
+          <t>€ 8,42/kg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3209246</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Snacks of the World Chilli en Paprika Mix Mild</t>
+          <t>Snacks of the World Chilli Crackers Spicy</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -831,34 +831,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>€ 7,96/kg</t>
+          <t>€ 9,27/kg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3217977</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew &amp; Peanut Mix Sweet BBQ</t>
+          <t>Snacks of the World snackmix Salted</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -868,34 +868,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 10,60/kg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3217979</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Snacks of the World proteïne mix</t>
+          <t>Snacks of the World cashewnoten</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianten</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,34 +905,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>€ 10,60/kg</t>
+          <t>€ 11,93/kg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3217978</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Snacks of the World Flaming Hot Mix Spicy</t>
+          <t>Snacks of the World ongezouten cashewnoten XL-pack</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>500 gram</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -942,29 +942,29 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>€ 7,56/kg</t>
+          <t>€ 10,38/kg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3217977</t>
+          <t>3217980</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Snacks of the World snackmix Salted</t>
+          <t>Snacks of the World noten &amp; pinda mix Chilli Cheese Spicy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianten</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -984,29 +984,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3217976</t>
+          <t>3217978</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Snacks of the World pittige mix</t>
+          <t>Snacks of the World Flaming Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>200 gram | diverse varianten</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,34 +1016,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 7,96/kg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3217976</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World pittige mix</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,34 +1053,34 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 9,45/kg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3209246</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten XL-pack</t>
+          <t>Snacks of the World Chilli en Paprika Mix Mild</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>500 gram</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1090,34 +1090,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>€ 10,38/kg</t>
+          <t>€ 7,96/kg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Snacks of the World sriracha pindabollen Spicy</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>225 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1127,29 +1127,29 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>€ 8,84/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Snacks of the World pecan-notenmix</t>
+          <t>Snacks of the World sriracha pindabollen Spicy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>225 gram</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1164,24 +1164,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 8,84/kg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
+          <t>Snacks of the World pecan-notenmix</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1201,24 +1201,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Snacks of the World pistache mix</t>
+          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1238,24 +1238,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>€ 11,45/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Snacks of the World macadamia notenmix</t>
+          <t>Snacks of the World pistache mix</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1275,24 +1275,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>€ 11,45/kg</t>
+          <t>€ 11,95/kg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Snacks of the World honing cashew- en pindamix</t>
+          <t>Snacks of the World macadamia notenmix</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1312,34 +1312,34 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>€ 9,45/kg</t>
+          <t>€ 11,95/kg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten</t>
+          <t>Snacks of the World honing cashew- en pindamix</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1349,34 +1349,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten pinda's</t>
+          <t>Snacks of the World ongezouten cashewnoten</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>375 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1386,24 +1386,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>€ 5,04/kg</t>
+          <t>€ 11,93/kg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Snacks of the World gezouten pinda's</t>
+          <t>Snacks of the World ongezouten pinda's</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1428,29 +1428,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Snacks of the World cashewnoten</t>
+          <t>Snacks of the World gezouten pinda's</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>375 gram</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1460,34 +1460,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 5,31/kg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>400 gram</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1497,24 +1497,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>€ 7,16/kg</t>
+          <t>€ 6,48/kg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Snacks of the World wasabistijl pinda's</t>
+          <t>Snacks of the World pindabollen in Japanse stijl Mild</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1534,24 +1534,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>€ 7,96/kg</t>
+          <t>€ 7,16/kg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>2572351</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Snacks of the World noten en rozijnen</t>
+          <t>Snacks of the World Cranberry &amp; Nuts</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1571,34 +1571,34 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>€ 8,45/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen XL-pack</t>
+          <t>Snacks of the World wasabistijl pinda's</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1608,34 +1608,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>€ 9,83/kg</t>
+          <t>€ 7,96/kg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten XL-pack</t>
+          <t>Snacks of the World noten en rozijnen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1645,34 +1645,34 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>€ 10,97/kg</t>
+          <t>€ 8,45/kg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Natural Happiness notenmix Tropical</t>
+          <t>Natural Happiness walnoten Raw</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>175 gram</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1682,24 +1682,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>€ 11,81/kg</t>
+          <t>€ 13,90/kg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Natural Happiness noten &amp; fruit mix</t>
+          <t>Natural Happiness amandelen Raw</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1719,34 +1719,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>€ 10,33/kg</t>
+          <t>€ 11,00/kg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Natural Happiness proteïnemix</t>
+          <t>Natural Happiness pecannoten Raw</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1756,24 +1756,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>€ 11,30/kg</t>
+          <t>€ 23,90/kg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Natural Happiness notenmix Raw</t>
+          <t>Natural Happiness noten &amp; fruit mix</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1793,34 +1793,34 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>€ 13,27/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Natural Happiness pijnboompitten</t>
+          <t>Natural Happiness notenmix Tropical</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>50 gram</t>
+          <t>175 gram</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1830,34 +1830,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>€ 39,60/kg</t>
+          <t>€ 11,81/kg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Natural Happiness pecannoten Raw</t>
+          <t>Natural Happiness proteïnemix</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>100 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1867,34 +1867,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>€ 23,90/kg</t>
+          <t>€ 11,30/kg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen Raw</t>
+          <t>Natural Happiness cashewnoten ongezouten</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1904,34 +1904,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>€ 11,00/kg</t>
+          <t>€ 11,63/kg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten Raw</t>
+          <t>Natural Happiness amandelen XL-pack</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>100 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1941,24 +1941,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>€ 13,90/kg</t>
+          <t>€ 11,43/kg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Natural Happiness chiazaad</t>
+          <t>Natural Happiness notenmix Raw</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1978,108 +1978,108 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 12,60/kg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3218252</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Billes croquantes Choco Moment</t>
+          <t>Natural Happiness pijnboompitten</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>135 g | Divers modèles</t>
+          <t>50 gram</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>18,44 €/kg</t>
+          <t>€ 37,80/kg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cacahuètes au chocolat Choco Moment</t>
+          <t>Natural Happiness chiazaad</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>8,81 €/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Raisins secs au chocolat Choco Moment</t>
+          <t>Clusters Choco Moment</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>260 grammes</t>
+          <t>Diverses saveurs</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2089,12 +2089,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8,81 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
@@ -2131,29 +2131,29 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3208234</t>
+          <t>3218252</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mélange au chocolat Choco Moment</t>
+          <t>Billes croquantes Choco Moment</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Divers modèles</t>
+          <t>135 g | Divers modèles</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2163,34 +2163,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>15,27 €/kg</t>
+          <t>18,44 €/kg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment</t>
+          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>150 g | Divers modèles</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2200,34 +2200,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>19,93 €/kg</t>
+          <t>15,93 €/kg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3208234</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment Édition spéciale</t>
+          <t>Mélange au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>150 grammes | Diverses saveurs</t>
+          <t>Divers modèles</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,34 +2237,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>19,93 €/kg</t>
+          <t>15,27 €/kg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mélange apéritif Snacks of the World Hot Mix</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>150 g | Divers modèles</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2274,34 +2274,34 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5,73 €/kg</t>
+          <t>18,60 €/kg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3209246</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mélange apéritif piment et paprika Snacks of the World Doux</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment Édition spéciale</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>150 grammes | Diverses saveurs</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2311,34 +2311,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>19,93 €/kg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées format XL Snacks of the World</t>
+          <t>Cacahuètes au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2348,34 +2348,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>12,98 €/kg</t>
+          <t>10,35 €/kg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mélange de cachuètes et noix de cajou Snacks of the World Sweet BBQ</t>
+          <t>Raisins secs goût chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2385,12 +2385,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>10,35 €/kg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2422,34 +2422,34 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>9,90 €/kg</t>
+          <t>7,95 €/kg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3217979</t>
+          <t>3217980</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Snacks of the World</t>
+          <t>Mélange de noix et cacahuètes Snacks of the World Chilli Cheese Spicy</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>150 g | Divers modèles</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>12,60 €/kg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2496,12 +2496,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>8,76 €/kg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>11,93 €/kg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
@@ -2575,29 +2575,29 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3209246</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
+          <t>Mélange apéritif piment et paprika Snacks of the World Doux</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2607,34 +2607,34 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>8,76 €/kg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
+          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>225 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,34 +2644,34 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>8,84 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mélange de noix de pécan Snacks of the World</t>
+          <t>Noix de cajou non salées format XL Snacks of the World</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2681,34 +2681,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>12,98 €/kg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
+          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>225 grammes</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2718,34 +2718,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>8,84 €/kg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
+          <t>Mélange de noix de pécan Snacks of the World</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2755,34 +2755,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>11,45 €/kg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mélange de noix de macadamia Snacks of the World</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,34 +2792,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11,95 €/kg</t>
+          <t>11,45 €/kg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Noix de cajou salées Snacks of the World</t>
+          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2829,34 +2829,34 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>12,98 €/kg</t>
+          <t>11,75 €/kg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
+          <t>Mélange de noix de macadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2866,34 +2866,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>11,75 €/kg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées Snacks of the World</t>
+          <t>Noix de cajou salées Snacks of the World</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2903,34 +2903,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>11,60 €/kg</t>
+          <t>12,98 €/kg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cacahuètes non salées Snacks of the World</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2940,34 +2940,34 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,45 €/kg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cacahuètes salées Snacks of the World</t>
+          <t>Noix de cajou non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2977,34 +2977,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Noix de cajou Snacks of the World</t>
+          <t>Cacahuètes non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3014,34 +3014,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>11,60 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
+          <t>Cacahuètes salées Snacks of the World</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>250 grammes</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3051,24 +3051,24 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Craquelins au piment Snacks of the World</t>
+          <t>Noix de cajou Snacks of the World</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3088,34 +3088,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>11,93 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cacahuètes au wasabi Snacks of the World</t>
+          <t>Mélange apéritif Snacks of the World Hot Mix</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3125,34 +3125,34 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>6,48 €/kg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness format XL</t>
+          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>250 grammes</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3162,34 +3162,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2572351</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
+          <t>Mélange de canneberge &amp; noix Snacks of the World</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3199,24 +3199,24 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Craquelins au piment Snacks of the World</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3236,34 +3236,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>13,00 €/kg</t>
+          <t>11,93 €/kg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness format XL</t>
+          <t>Cacahuètes au wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3273,34 +3273,34 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness Raw</t>
+          <t>Graines de chia Natural Happiness</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3310,34 +3310,34 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>15,67 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Noix de pécan Natural Happiness Raw</t>
+          <t>Mélange noix et fruits secs Natural Happiness Tropical</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3347,34 +3347,34 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>23,90 €/kg</t>
+          <t>12,44 €/kg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness Raw</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3384,34 +3384,34 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>13,27 €/kg</t>
+          <t>13,00 €/kg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness</t>
+          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3421,34 +3421,34 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>13,90 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Graines de chia Natural Happiness</t>
+          <t>Noix de cajou Natural Happiness Sans sel</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3458,293 +3458,293 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3218252</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Choco Moment Knusperkugeln</t>
+          <t>Amandes Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>135 g | Verschiedene Varianten</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>17,70 €/kg</t>
+          <t>12,97 €/kg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Choco Moment Schoko-Erdnüsse</t>
+          <t>Cerneaux de noix Natural Happiness format XL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>8,81 €/kg</t>
+          <t>12,43 €/kg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Choco Moment Schokoladenrosinen</t>
+          <t>Mélange de fruits secs Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>7,65 €/kg</t>
+          <t>15,67 €/kg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3218253</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Choco Moment Knusperkugeln</t>
+          <t>Pignons de pin Natural Happiness</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>135 g | Verschiedene Varianten</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>17,70 €/kg</t>
+          <t>45,80 €/kg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3208234</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Choco Moment Schokomix</t>
+          <t>Noix de pécan Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Schokoladensnacks</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>14,60 €/kg</t>
+          <t>23,90 €/kg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Choco Moment Nussmischung</t>
+          <t>Amandes Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>12,60 €/kg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Choco Moment Schokonüsse Special Edition</t>
+          <t>Cerneaux de noix Natural Happiness</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>19,27 €/kg</t>
+          <t>13,90 €/kg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3217979</t>
+          <t>3218253</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Snacks of the World Proteinmischung</t>
+          <t>Choco Moment Knusperkugeln</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>135 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3754,34 +3754,34 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>17,70 €/kg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Choco Moment Cluster</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3791,34 +3791,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4,98 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3209246</t>
+          <t>3218252</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Snacks of the World Chili-Paprika-Mix Mild</t>
+          <t>Choco Moment Knusperkugeln</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>135 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3828,34 +3828,34 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>17,70 €/kg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3217978</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Snacks of the World Flaming Hot Mix Spicy</t>
+          <t>Choco Moment Cranberry-Erdnuss-Mischung</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3865,34 +3865,34 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>15,27 €/kg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3217977</t>
+          <t>3208234</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Snacks of the World Snackmix Gesalzen</t>
+          <t>Choco Moment Schokomix</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>Schokoladensnacks</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3902,34 +3902,34 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>14,60 €/kg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3217976</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Snacks of the World Snack Mix</t>
+          <t>Choco Moment Nussmischung</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>200 g | Verschiedene Varianten</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3939,34 +3939,34 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>18,60 €/kg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Choco Moment Schokonüsse Special Edition</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3976,34 +3976,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>19,27 €/kg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewnüsse XL-Pack</t>
+          <t>Choco Moment Schoko-Erdnüsse</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,29 +4013,29 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>12,98 €/kg</t>
+          <t>9,96 €/kg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
+          <t>Choco Moment Rosinen mit Schokoladengeschmack</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4050,34 +4050,34 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8,84 €/kg</t>
+          <t>7,65 €/kg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Snacks of the World Pekan-Nussmischung</t>
+          <t>Snacks of the World Chili Cracker Spicy</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4087,34 +4087,34 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
+          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4124,34 +4124,34 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3217980</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Snacks of the World Pistazienmischung</t>
+          <t>Snacks of the World Nüsse &amp; Erdnuss-Mix Chilli Cheese Spicy</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4161,34 +4161,34 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>12,60 €/kg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3217978</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Snacks of the World Macadamia-Nussmischung</t>
+          <t>Snacks of the World Flaming Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4198,34 +4198,34 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3217977</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne Gesalzen</t>
+          <t>Snacks of the World Snackmix Gesalzen</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4235,34 +4235,34 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>12,98 €/kg</t>
+          <t>11,93 €/kg</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3217976</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
+          <t>Snacks of the World Snack Mix</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>200 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4272,29 +4272,29 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3209246</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewkerne</t>
+          <t>Snacks of the World Chili-Paprika-Mix Mild</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4309,34 +4309,34 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>14,60 €/kg</t>
+          <t>8,76 €/kg</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Erdnüsse</t>
+          <t>Snacks of the World Sriracha Mix</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4346,34 +4346,34 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>5,31 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Snacks of the World Gesalzene Erdnüsse</t>
+          <t>Snacks of the World Ungesalzene Cashewnüsse XL-Pack</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4383,34 +4383,34 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>5,31 €/kg</t>
+          <t>12,98 €/kg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne</t>
+          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4420,34 +4420,34 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>14,60 €/kg</t>
+          <t>8,84 €/kg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
+          <t>Snacks of the World Pekan-Nussmischung</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4457,34 +4457,34 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Snacks of the World Chili Cracker Spicy</t>
+          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4494,34 +4494,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Snacks of the World Wasabi-Erdnüsse</t>
+          <t>Snacks of the World Pistazienmischung</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4531,24 +4531,24 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Snacks of the World Nüsse und Rosinen</t>
+          <t>Snacks of the World Macadamia-Nussmischung</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4568,29 +4568,29 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>6,95 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
+          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>175 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4605,24 +4605,24 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>12,44 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss-Fruchtmischung</t>
+          <t>Snacks of the World Ungesalzene Cashewkerne</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4642,34 +4642,34 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>14,60 €/kg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Natural Happiness Proteinmischung</t>
+          <t>Snacks of the World Ungesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4679,34 +4679,34 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>6,11 €/kg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
+          <t>Snacks of the World Gesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4716,34 +4716,34 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>6,11 €/kg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Snacks of the World Cashewkerne</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4753,34 +4753,34 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>15,27 €/kg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Nussmischung</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4790,29 +4790,29 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>14,33 €/kg</t>
+          <t>6,48 €/kg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>2572351</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Natural Happiness Pinienkerne</t>
+          <t>Snacks of the World Cranberry &amp; Nuts</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4827,34 +4827,34 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>43,80 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Natural Happiness Salatmix</t>
+          <t>Snacks of the World Wasabi-Erdnüsse</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>75 Gramm | verschiedene Varianten</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4864,34 +4864,34 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>10,53 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Pekannusskerne</t>
+          <t>Snacks of the World Nüsse und Rosinen</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4901,34 +4901,34 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>23,90 €/kg</t>
+          <t>7,45 €/kg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Mandeln</t>
+          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4938,34 +4938,34 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>12,44 €/kg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Walnüsse</t>
+          <t>Natural Happiness Nuss-Fruchtmischung</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4975,34 +4975,34 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Natural Happiness Proteinmischung</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5012,34 +5012,34 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>9,27 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
+          <t>Natural Happiness Cashewkerne ungesalzen</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>175 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5049,34 +5049,34 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>12,44 €/kg</t>
+          <t>13,97 €/kg</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss-Fruchtmischung</t>
+          <t>Natural Happiness Mandeln XL-Packung</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5086,24 +5086,24 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>11,43 €/kg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Natural Happiness Proteinmischung</t>
+          <t>Natural Happiness Walnüsse XL-Packung</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5123,34 +5123,34 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>13,97 €/kg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
+          <t>Natural Happiness Raw Nussmischung</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5160,34 +5160,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>11,30 €/kg</t>
+          <t>14,33 €/kg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Natural Happiness Pinienkerne</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5197,34 +5197,34 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>43,00 €/kg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Nussmischung</t>
+          <t>Natural Happiness Raw Pekannusskerne</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5234,34 +5234,34 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>14,33 €/kg</t>
+          <t>23,90 €/kg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Natural Happiness Pinienkerne</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5271,34 +5271,34 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>43,80 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Natural Happiness Salatmix</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>75 Gramm | verschiedene Varianten</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5308,34 +5308,34 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>10,53 €/kg</t>
+          <t>16,90 €/kg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Pekannusskerne</t>
+          <t>Natural Happiness Chiasamen</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5345,34 +5345,34 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>23,90 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Mandeln</t>
+          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5382,34 +5382,34 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>12,44 €/kg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Walnüsse</t>
+          <t>Natural Happiness Nuss-Fruchtmischung</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5419,34 +5419,34 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>14,90 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Natural Happiness Proteinmischung</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5456,367 +5456,367 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>9,27 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
+          <t>Natural Happiness Cashewkerne ungesalzen</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>260 gramów</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>38,42 zł/kg</t>
+          <t>13,97 €/kg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3218253</t>
+          <t>2581335</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Chrupiące kuleczki Choco Moment</t>
+          <t>Natural Happiness Mandeln XL-Packung</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>135 g | Różne warianty</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>88,15 zł/kg</t>
+          <t>11,43 €/kg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3218252</t>
+          <t>2581329</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Chrupiące kuleczki Choco Moment</t>
+          <t>Natural Happiness Walnüsse XL-Packung</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>135 g | Różne warianty</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>88,15 zł/kg</t>
+          <t>13,97 €/kg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3208234</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Choco Moment Czekoladowa mieszanka</t>
+          <t>Natural Happiness Raw Nussmischung</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Różne warianty</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>66,60 zł/kg</t>
+          <t>14,33 €/kg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Choco Moment</t>
+          <t>Natural Happiness Pinienkerne</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>150 gramów | Różne warianty</t>
+          <t>50 g</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>83,93 zł/kg</t>
+          <t>43,00 €/kg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
+          <t>Natural Happiness Raw Pekannusskerne</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>83,93 zł/kg</t>
+          <t>23,90 €/kg</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Rodzynki w czekoladzie Choco Moment</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>38,27 zł/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pikantna mieszanka Snacks of the World</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>400 gramów</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>24,98 zł/kg</t>
+          <t>16,90 €/kg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Krakersy chilli Snacks of the World Pikantne</t>
+          <t>Natural Happiness Chiasamen</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>41,27 zł/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3209246</t>
+          <t>3218253</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mieszanka Chili i Papryka Snacks of the World Łagodna</t>
+          <t>Chrupiące kuleczki Choco Moment</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>135 g | Różne warianty</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11.90</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5826,34 +5826,34 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>35,80 zł/kg</t>
+          <t>88,15 zł/kg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3217983</t>
+          <t>3218252</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mieszanka nerkowców i orzechów ziemnych Snacks of the World Sweet BBQ</t>
+          <t>Chrupiące kuleczki Choco Moment</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>135 g | Różne warianty</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>11.90</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5863,34 +5863,34 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>49,75 zł/kg</t>
+          <t>88,15 zł/kg</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3217981</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sweet &amp; Spicy mix Snacks of the World</t>
+          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5900,34 +5900,34 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>68,60 zł/kg</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3217979</t>
+          <t>3208234</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mieszanka proteinowa Snacks of the World</t>
+          <t>Choco Moment Czekoladowa mieszanka</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5937,34 +5937,34 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>66,60 zł/kg</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3217978</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Snacks of the World Flaming Hot Mix Spicy</t>
+          <t>Czekoladowe kulki Choco Moment</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5974,34 +5974,34 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>35,80 zł/kg</t>
+          <t>74,60 zł/kg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3217977</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mieszanka przekąsek Snacks of the World Solona</t>
+          <t>Mieszanka orzechów Choco Moment</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>150 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6011,34 +6011,34 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>73,27 zł/kg</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3217976</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Pikantna mieszanka Snacks of the World</t>
+          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>200 g | Różne warianty</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6048,34 +6048,34 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>83,93 zł/kg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
+          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>260 gramów</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6085,34 +6085,34 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>49,93 zł/kg</t>
+          <t>43,42 zł/kg</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
+          <t>Rodzynki w polewie Choco Moment</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>500 gramów</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6122,34 +6122,34 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>59,80 zł/kg</t>
+          <t>38,27 zł/kg</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
+          <t>Orzechy nerkowca Snacks of the World Solone</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>225 gramów</t>
+          <t>500 gramów</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>29.90</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6159,34 +6159,34 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>39,07 zł/kg</t>
+          <t>59,80 zł/kg</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3217980</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów pekan Snacks of the World</t>
+          <t>Mieszanka orzechów Snacks of the World Chilli Cheese Spicy</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6196,34 +6196,34 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>49,75 zł/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3217979</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
+          <t>Mieszanka proteinowa Snacks of the World</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6233,34 +6233,34 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>42,45 zł/kg</t>
+          <t>49,93 zł/kg</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3217978</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Snacks of the World</t>
+          <t>Snacks of the World Flaming Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6270,34 +6270,34 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>59,95 zł/kg</t>
+          <t>39,80 zł/kg</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3217977</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów makadamia Snacks of the World</t>
+          <t>Mieszanka przekąsek Snacks of the World Solona</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6307,34 +6307,34 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>49,75 zł/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3217976</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World Solone</t>
+          <t>Pikantna mieszanka Snacks of the World</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>500 gramów</t>
+          <t>200 g | Różne warianty</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6344,34 +6344,34 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>59,80 zł/kg</t>
+          <t>49,75 zł/kg</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3209246</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
+          <t>Mieszanka Chili i Papryka Snacks of the World Łagodna</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6381,24 +6381,24 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>39,80 zł/kg</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Niesolone orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6418,34 +6418,34 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>57,00 zł/kg</t>
+          <t>53,00 zł/kg</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Niesolone orzeszki ziemne Snacks of the World</t>
+          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>500 gramów</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>29.90</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6455,34 +6455,34 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>59,80 zł/kg</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Solone orzeszki ziemne Snacks of the World</t>
+          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>225 gramów</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6492,34 +6492,34 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>44,22 zł/kg</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka orzechów pekan Snacks of the World</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6529,34 +6529,34 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>57,00 zł/kg</t>
+          <t>49,75 zł/kg</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
+          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6566,34 +6566,34 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>35,80 zł/kg</t>
+          <t>42,45 zł/kg</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne wasabi Snacks of the World</t>
+          <t>Mieszanka orzechów Snacks of the World</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6603,34 +6603,34 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>35,80 zł/kg</t>
+          <t>56,45 zł/kg</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Orzechy włoskie Natural Happiness</t>
+          <t>Mieszanka orzechów makadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>13.99</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6640,34 +6640,34 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>46,63 zł/kg</t>
+          <t>56,45 zł/kg</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness Tropical</t>
+          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>175 g</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6677,24 +6677,24 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>54,94 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i owoców Natural Happiness</t>
+          <t>Niesolone orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6714,34 +6714,34 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>44,60 zł/kg</t>
+          <t>57,00 zł/kg</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
+          <t>Niesolone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6751,34 +6751,34 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>49,93 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Migdały opakowanie XL Natural Happiness</t>
+          <t>Solone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6788,34 +6788,34 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>46,30 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2577634</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Mieszanka sałatkowa Natural Happiness</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>75 gramów | różne warianty</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6825,34 +6825,34 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>47,87 zł/kg</t>
+          <t>57,00 zł/kg</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Orzechy pekan Natural Happiness Raw</t>
+          <t>Pikantna mieszanka Snacks of the World</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>100 gramów</t>
+          <t>400 gramów</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6862,34 +6862,34 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>82,90 zł/kg</t>
+          <t>28,13 zł/kg</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Migdały Natural Happiness Raw</t>
+          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6899,34 +6899,34 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>46,60 zł/kg</t>
+          <t>39,80 zł/kg</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>2572351</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Orzechy włoskie Natural Happiness Raw</t>
+          <t>Żurawina i orzechy Snacks of the World</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>100 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6936,49 +6936,419 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>59,50 zł/kg</t>
+          <t>49,75 zł/kg</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>2572329</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Krakersy chilli Snacks of the World Pikantne</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>150 gramów</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>59,67 zł/kg</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2572327</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Orzeszki ziemne wasabi Snacks of the World</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>250 gramów</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>39,80 zł/kg</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>3208739</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Mieszanka orzechów Natural Happiness Tropical</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>175 g</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>54,94 zł/kg</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>3011072</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Mieszanka orzechów i owoców Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>150 gramów</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>46,60 zł/kg</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>3011014</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Mieszanka orzechów Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>49,93 zł/kg</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>3003625</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>300 gramów</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>49,97 zł/kg</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2580351</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Orzeszki pinii Natural Happiness</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>50 gramów</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>159,00 zł/kg</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2576502</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Orzechy pekan Natural Happiness Raw</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>100 gramów</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>89,90 zł/kg</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2572372</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Migdały Natural Happiness Raw</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>150 gramów</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>53,27 zł/kg</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2572352</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Orzechy włoskie Natural Happiness Raw</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>100 gramów</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>pl</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>59,50 zł/kg</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>2572286</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Nasiona chia Natural Happiness</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>150 gramów</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
         <is>
           <t>pl</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>39,67 zł/kg</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>43,27 zł/kg</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>

--- a/Web Scraping/Action_data.xlsx
+++ b/Web Scraping/Action_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3208234</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choco Moment chocolademix</t>
+          <t>Choco Moment cranberry-pindamix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Diverse varianten</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>€ 14,60/kg</t>
+          <t>€ 13,00/kg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,29 +540,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3218252</t>
+          <t>3208234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choco Moment knapperige balletjes</t>
+          <t>Choco Moment chocolademix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>135 gram | diverse varianten</t>
+          <t>Diverse varianten</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,34 +572,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>€ 17,70/kg</t>
+          <t>€ 14,60/kg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choco Moment rozijnen met chocoladesmaak</t>
+          <t>Choco Moment notenmix</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>260 gram</t>
+          <t>150 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,34 +609,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>€ 8,81/kg</t>
+          <t>€ 15,27/kg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3222330</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choco Moment cranberry-pindamix</t>
+          <t>Choco Moment chocolade dadels</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>125 gram</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,34 +646,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>€ 14,60/kg</t>
+          <t>€ 19,12/kg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3218252</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Choco Moment clusters</t>
+          <t>Choco Moment knapperige balletjes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Diverse varianten</t>
+          <t>135 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,34 +683,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>€ 15,93/kg</t>
+          <t>€ 17,70/kg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Choco Moment notenmix</t>
+          <t>Choco Moment clusters</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>150 gram | diverse varianten</t>
+          <t>Diverse varianten</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>€ 17,27/kg</t>
+          <t>€ 15,93/kg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,29 +799,29 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Snacks of the World Chilli Crackers Spicy</t>
+          <t>Choco Moment rozijnen met chocoladesmaak</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>260 gram</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -831,24 +831,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>€ 9,27/kg</t>
+          <t>€ 8,81/kg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3217977</t>
+          <t>3221370</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Snacks of the World snackmix Salted</t>
+          <t>Chocomix</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -873,19 +873,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Snacks of the World cashewnoten</t>
+          <t>Snacks of the World Chilli Crackers Spicy</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,34 +905,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 9,27/kg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3217980</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten XL-pack</t>
+          <t>Snacks of the World noten &amp; pinda mix Chilli Cheese Spicy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>500 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -942,34 +942,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>€ 10,38/kg</t>
+          <t>€ 12,60/kg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3217980</t>
+          <t>3217978</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Snacks of the World noten &amp; pinda mix Chilli Cheese Spicy</t>
+          <t>Snacks of the World Flaming Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>250 gram</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -979,34 +979,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>€ 12,60/kg</t>
+          <t>€ 7,96/kg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3217978</t>
+          <t>3217977</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Snacks of the World Flaming Hot Mix Spicy</t>
+          <t>Snacks of the World snackmix Salted</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>250 gram</t>
+          <t>150 gram | diverse varianten</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>€ 7,96/kg</t>
+          <t>€ 10,60/kg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1095,29 +1095,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World sriracha pindabollen Spicy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>225 gram</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1127,34 +1127,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 8,84/kg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Snacks of the World sriracha pindabollen Spicy</t>
+          <t>Snacks of the World pecan-notenmix</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>225 gram</t>
+          <t>200 gram</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,24 +1164,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>€ 8,84/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Snacks of the World pecan-notenmix</t>
+          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew en Pinda Mix Spicy</t>
+          <t>Snacks of the World pistache mix</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1238,24 +1238,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 11,95/kg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Snacks of the World pistache mix</t>
+          <t>Snacks of the World macadamia notenmix</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1280,19 +1280,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Snacks of the World macadamia notenmix</t>
+          <t>Snacks of the World honing cashew- en pindamix</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1312,34 +1312,34 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>€ 11,95/kg</t>
+          <t>€ 9,95/kg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Snacks of the World honing cashew- en pindamix</t>
+          <t>Snacks of the World ongezouten cashewnoten</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>200 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1349,34 +1349,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>€ 9,95/kg</t>
+          <t>€ 11,93/kg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten cashewnoten</t>
+          <t>Snacks of the World ongezouten pinda's</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>375 gram</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1386,24 +1386,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>€ 11,93/kg</t>
+          <t>€ 5,04/kg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Snacks of the World ongezouten pinda's</t>
+          <t>Snacks of the World gezouten pinda's</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1423,34 +1423,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>€ 5,04/kg</t>
+          <t>€ 5,31/kg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Snacks of the World gezouten pinda's</t>
+          <t>Snacks of the World cashewnoten</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>375 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1460,12 +1460,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>€ 5,31/kg</t>
+          <t>€ 11,93/kg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1650,29 +1650,29 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Natural Happiness walnoten Raw</t>
+          <t>Natural Happiness notenmix Tropical</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>100 gram</t>
+          <t>175 gram</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1682,24 +1682,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>€ 13,90/kg</t>
+          <t>€ 11,81/kg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen Raw</t>
+          <t>Natural Happiness noten &amp; fruit mix</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1719,34 +1719,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>€ 11,00/kg</t>
+          <t>€ 9,93/kg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Natural Happiness pecannoten Raw</t>
+          <t>Natural Happiness proteïnemix</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>100 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1756,34 +1756,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>€ 23,90/kg</t>
+          <t>€ 11,30/kg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Natural Happiness noten &amp; fruit mix</t>
+          <t>Natural Happiness cashewnoten ongezouten</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>150 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1793,34 +1793,34 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>€ 9,93/kg</t>
+          <t>€ 11,63/kg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Natural Happiness notenmix Tropical</t>
+          <t>Natural Happiness notenmix</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>175 gram</t>
+          <t>300 gram</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1830,34 +1830,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>€ 11,81/kg</t>
+          <t>€ 12,30/kg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Natural Happiness proteïnemix</t>
+          <t>Natural Happiness notenmix Raw</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>150 gram</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1867,34 +1867,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>€ 11,30/kg</t>
+          <t>€ 12,60/kg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2580351</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Natural Happiness cashewnoten ongezouten</t>
+          <t>Natural Happiness pijnboompitten</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>50 gram</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1904,34 +1904,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>€ 11,63/kg</t>
+          <t>€ 37,80/kg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Natural Happiness amandelen XL-pack</t>
+          <t>Natural Happiness pecannoten Raw</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>300 gram</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1941,24 +1941,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>€ 11,43/kg</t>
+          <t>€ 23,90/kg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Natural Happiness notenmix Raw</t>
+          <t>Natural Happiness amandelen Raw</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1978,34 +1978,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>€ 12,60/kg</t>
+          <t>€ 11,00/kg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Natural Happiness pijnboompitten</t>
+          <t>Natural Happiness walnoten Raw</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>50 gram</t>
+          <t>100 gram</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2015,12 +2015,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>€ 37,80/kg</t>
+          <t>€ 13,90/kg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2057,29 +2057,29 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Clusters Choco Moment</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Diverses saveurs</t>
+          <t>150 g | Divers modèles</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2089,34 +2089,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>15,93 €/kg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3218253</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Billes croquantes Choco Moment</t>
+          <t>Clusters Choco Moment</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>135 g | Divers modèles</t>
+          <t>Diverses saveurs</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2126,34 +2126,34 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>18,44 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3218252</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Billes croquantes Choco Moment</t>
+          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>135 g | Divers modèles</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2163,34 +2163,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>18,44 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3222330</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mélange de canneberges et cacahuètes Choco Moment</t>
+          <t>Dattes au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>125 g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2200,34 +2200,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>15,93 €/kg</t>
+          <t>19,92 €/kg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3208234</t>
+          <t>3218253</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mélange au chocolat Choco Moment</t>
+          <t>Billes croquantes Choco Moment</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Divers modèles</t>
+          <t>135 g | Divers modèles</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,34 +2237,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>15,27 €/kg</t>
+          <t>18,44 €/kg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3218252</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment</t>
+          <t>Billes croquantes Choco Moment</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>150 g | Divers modèles</t>
+          <t>135 g | Divers modèles</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2274,34 +2274,34 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>18,60 €/kg</t>
+          <t>18,44 €/kg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3208234</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fruits secs enrobés de chocolat Choco Moment Édition spéciale</t>
+          <t>Mélange au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>150 grammes | Diverses saveurs</t>
+          <t>Divers modèles</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2311,34 +2311,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>19,93 €/kg</t>
+          <t>15,27 €/kg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cacahuètes au chocolat Choco Moment</t>
+          <t>Fruits secs enrobés de chocolat Choco Moment Édition spéciale</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>150 grammes | Diverses saveurs</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2348,24 +2348,24 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10,35 €/kg</t>
+          <t>19,93 €/kg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Raisins secs goût chocolat Choco Moment</t>
+          <t>Cacahuètes au chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2390,29 +2390,29 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3217981</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sweet &amp; Spicy mix Snacks of the World</t>
+          <t>Raisins secs goût chocolat Choco Moment</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2422,34 +2422,34 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7,95 €/kg</t>
+          <t>10,35 €/kg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3217980</t>
+          <t>3221370</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mélange de noix et cacahuètes Snacks of the World Chilli Cheese Spicy</t>
+          <t>Chocomix</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Divers modèles</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2459,34 +2459,34 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>12,60 €/kg</t>
+          <t>11,93 €/kg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3217978</t>
+          <t>3002918</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mélange apéritif Snacks of the World Flaming Hot Mix Spicy</t>
+          <t>Noix &amp; raisins secs Snacks of the World Format XXL</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>500 grammes</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2496,34 +2496,34 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>8,76 €/kg</t>
+          <t>6,98 €/kg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3217977</t>
+          <t>3217980</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mélange apéritif Snacks of the World Salé</t>
+          <t>Mélange de noix et cacahuètes Snacks of the World Chilli Cheese Spicy</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>150 g | Divers modèles</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2533,34 +2533,34 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11,93 €/kg</t>
+          <t>12,60 €/kg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3217976</t>
+          <t>3217978</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mélange apéritif épicé Snacks of the World</t>
+          <t>Mélange apéritif Snacks of the World Flaming Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>200 g | Divers modèles</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,34 +2570,34 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>8,76 €/kg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3209246</t>
+          <t>3217977</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mélange apéritif piment et paprika Snacks of the World Doux</t>
+          <t>Mélange apéritif Snacks of the World Salé</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>150 g | Divers modèles</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2607,34 +2607,34 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>8,76 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3217976</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
+          <t>Mélange apéritif épicé Snacks of the World</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g | Divers modèles</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,34 +2644,34 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>9,93 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3209246</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées format XL Snacks of the World</t>
+          <t>Mélange apéritif piment et paprika Snacks of the World Doux</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2681,34 +2681,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>12,98 €/kg</t>
+          <t>8,76 €/kg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
+          <t>Gâteaux apéritifs goût sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>225 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2718,34 +2718,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>8,84 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mélange de noix de pécan Snacks of the World</t>
+          <t>Noix de cajou non salées format XL Snacks of the World</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2755,34 +2755,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>11,45 €/kg</t>
+          <t>12,98 €/kg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
+          <t>Boules de cacahuètes à la sauce piquante Snacks of the World</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>225 grammes</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,34 +2792,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11,45 €/kg</t>
+          <t>8,84 €/kg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
+          <t>Mélange de noix de pécan Snacks of the World</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2829,34 +2829,34 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>11,75 €/kg</t>
+          <t>11,45 €/kg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mélange de noix de macadamia Snacks of the World</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World Spicy</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2866,34 +2866,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11,75 €/kg</t>
+          <t>11,45 €/kg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Noix de cajou salées Snacks of the World</t>
+          <t>Mélange de pistaches et fruits secs Snacks of the World</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2903,34 +2903,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>12,98 €/kg</t>
+          <t>11,75 €/kg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
+          <t>Mélange de noix de macadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2940,34 +2940,34 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11,45 €/kg</t>
+          <t>11,75 €/kg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Noix de cajou non salées Snacks of the World</t>
+          <t>Noix de cajou salées Snacks of the World</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2977,34 +2977,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11,67 €/kg</t>
+          <t>12,98 €/kg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cacahuètes non salées Snacks of the World</t>
+          <t>Mélange de noix de cajou et cacahuètes Snacks of the World</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3014,34 +3014,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,45 €/kg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cacahuètes salées Snacks of the World</t>
+          <t>Noix de cajou non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>375 grammes</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3051,34 +3051,34 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5,04 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Noix de cajou Snacks of the World</t>
+          <t>Cacahuètes non salées Snacks of the World</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3088,34 +3088,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>11,67 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mélange apéritif Snacks of the World Hot Mix</t>
+          <t>Cacahuètes salées Snacks of the World</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>375 grammes</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3125,34 +3125,34 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6,48 €/kg</t>
+          <t>5,04 €/kg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
+          <t>Noix de cajou Snacks of the World</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>250 grammes</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3162,34 +3162,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2572351</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mélange de canneberge &amp; noix Snacks of the World</t>
+          <t>Mélange apéritif Snacks of the World Hot Mix</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>200 grammes</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3199,34 +3199,34 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>6,48 €/kg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Craquelins au piment Snacks of the World</t>
+          <t>Boules de cacahuètes à la japonaise Snacks of the World Doux</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>250 grammes</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3236,34 +3236,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>11,93 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>2572351</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cacahuètes au wasabi Snacks of the World</t>
+          <t>Mélange de canneberge &amp; noix Snacks of the World</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>200 grammes</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3273,24 +3273,24 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Graines de chia Natural Happiness</t>
+          <t>Craquelins au piment Snacks of the World</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3310,34 +3310,34 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>11,93 €/kg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mélange noix et fruits secs Natural Happiness Tropical</t>
+          <t>Cacahuètes au wasabi Snacks of the World</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>175 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3347,34 +3347,34 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>12,44 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mélange de fruits secs Natural Happiness</t>
+          <t>Mélange noix et fruits secs Natural Happiness Tropical</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>150 grammes</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3384,34 +3384,34 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>13,00 €/kg</t>
+          <t>12,44 €/kg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3421,34 +3421,34 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>13,00 €/kg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Noix de cajou Natural Happiness Sans sel</t>
+          <t>Mélange de noix, edamame et raisins secs Natural Happiness</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>300 grammes</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3458,34 +3458,34 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>13,30 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness format XL</t>
+          <t>Noix de cajou Natural Happiness Sans sel</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>300 grammes</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3495,24 +3495,24 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>12,97 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness format XL</t>
+          <t>Mélange de fruits secs Natural Happiness</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>12,43 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3574,29 +3574,29 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Pignons de pin Natural Happiness</t>
+          <t>Noix de pécan Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3606,34 +3606,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>45,80 €/kg</t>
+          <t>23,90 €/kg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Noix de pécan Natural Happiness Raw</t>
+          <t>Amandes Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3643,34 +3643,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>23,90 €/kg</t>
+          <t>12,60 €/kg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Amandes Natural Happiness Raw</t>
+          <t>Cerneaux de noix Natural Happiness</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3680,34 +3680,34 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>12,60 €/kg</t>
+          <t>13,90 €/kg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cerneaux de noix Natural Happiness</t>
+          <t>Graines de chia Natural Happiness</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>150 grammes</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3717,34 +3717,34 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>13,90 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3218253</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Choco Moment Knusperkugeln</t>
+          <t>Choco Moment Cranberry-Erdnuss-Mischung</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>135 g | Verschiedene Varianten</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3754,34 +3754,34 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>17,70 €/kg</t>
+          <t>13,27 €/kg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Choco Moment Cluster</t>
+          <t>Choco Moment Nussmischung</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Verschiedene Varianten</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3791,19 +3791,19 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>16,60 €/kg</t>
+          <t>15,93 €/kg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3218252</t>
+          <t>3218253</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3833,29 +3833,29 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3218252</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Choco Moment Cranberry-Erdnuss-Mischung</t>
+          <t>Choco Moment Knusperkugeln</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>135 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>15,27 €/kg</t>
+          <t>17,70 €/kg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3907,29 +3907,29 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Choco Moment Nussmischung</t>
+          <t>Choco Moment Cluster</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3939,12 +3939,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>18,60 €/kg</t>
+          <t>16,60 €/kg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4092,29 +4092,29 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
+          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4124,34 +4124,34 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3217980</t>
+          <t>3217977</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Snacks of the World Nüsse &amp; Erdnuss-Mix Chilli Cheese Spicy</t>
+          <t>Snacks of the World Snackmix Gesalzen</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4161,24 +4161,24 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>12,60 €/kg</t>
+          <t>11,27 €/kg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3217978</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Snacks of the World Flaming Hot Mix Spicy</t>
+          <t>Snacks of the World Japanische Erdnusskugeln Mild</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4203,29 +4203,29 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3217977</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Snacks of the World Snackmix Gesalzen</t>
+          <t>Snacks of the World Ungesalzene Cashewkerne</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>150 g | Verschiedene Varianten</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4235,34 +4235,34 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>11,93 €/kg</t>
+          <t>12,60 €/kg</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3217976</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Snacks of the World Snack Mix</t>
+          <t>Snacks of the World Cashewkerne</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>200 g | Verschiedene Varianten</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4272,34 +4272,34 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>12,60 €/kg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3209246</t>
+          <t>3217980</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Snacks of the World Chili-Paprika-Mix Mild</t>
+          <t>Snacks of the World Nüsse &amp; Erdnuss-Mix Chilli Cheese Spicy</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4309,34 +4309,34 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>8,76 €/kg</t>
+          <t>12,60 €/kg</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3217978</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha Mix</t>
+          <t>Snacks of the World Flaming Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4346,34 +4346,34 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>9,93 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3217976</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewnüsse XL-Pack</t>
+          <t>Snacks of the World Snack Mix</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>500 g</t>
+          <t>200 g | Verschiedene Varianten</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4383,34 +4383,34 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>12,98 €/kg</t>
+          <t>9,95 €/kg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3209246</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
+          <t>Snacks of the World Chili-Paprika-Mix Mild</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4420,34 +4420,34 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>8,84 €/kg</t>
+          <t>8,76 €/kg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Snacks of the World Pekan-Nussmischung</t>
+          <t>Snacks of the World Sriracha-Erdnusskugeln Spicy</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4457,24 +4457,24 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>8,84 €/kg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
+          <t>Snacks of the World Pekan-Nussmischung</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4499,19 +4499,19 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Snacks of the World Pistazienmischung</t>
+          <t>Snacks of the World Cashew-Erdnuss-Mischung Spicy</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4531,24 +4531,24 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>12,45 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Snacks of the World Macadamia-Nussmischung</t>
+          <t>Snacks of the World Pistazienmischung</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4573,19 +4573,19 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Snacks of the World Honig-Cashew-Erdnuss-Mix</t>
+          <t>Snacks of the World Macadamia-Nussmischung</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4605,34 +4605,34 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>9,95 €/kg</t>
+          <t>12,45 €/kg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Cashewkerne</t>
+          <t>Snacks of the World Ungesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>375 g</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4642,24 +4642,24 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>14,60 €/kg</t>
+          <t>6,11 €/kg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Snacks of the World Ungesalzene Erdnüsse</t>
+          <t>Snacks of the World Gesalzene Erdnüsse</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4684,29 +4684,29 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Snacks of the World Gesalzene Erdnüsse</t>
+          <t>Snacks of the World Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>375 g</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4716,34 +4716,34 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>6,11 €/kg</t>
+          <t>6,48 €/kg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>2572351</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Snacks of the World Cashewkerne</t>
+          <t>Snacks of the World Cranberry &amp; Nuts</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4753,34 +4753,34 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>15,27 €/kg</t>
+          <t>10,95 €/kg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>2572327</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Snacks of the World Hot Mix Spicy</t>
+          <t>Snacks of the World Wasabi-Erdnüsse</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4790,24 +4790,24 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>6,48 €/kg</t>
+          <t>7,96 €/kg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2572351</t>
+          <t>2572300</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Snacks of the World Cranberry &amp; Nuts</t>
+          <t>Snacks of the World Nüsse und Rosinen</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4827,34 +4827,34 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>10,95 €/kg</t>
+          <t>7,45 €/kg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Snacks of the World Wasabi-Erdnüsse</t>
+          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4864,34 +4864,34 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>7,96 €/kg</t>
+          <t>12,44 €/kg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2572300</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Snacks of the World Nüsse und Rosinen</t>
+          <t>Natural Happiness Nuss-Fruchtmischung</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4901,34 +4901,34 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>7,45 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
+          <t>Natural Happiness Proteinmischung</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>175 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4938,34 +4938,34 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>12,44 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss-Fruchtmischung</t>
+          <t>Natural Happiness Cashewkerne ungesalzen</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4975,24 +4975,24 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>13,97 €/kg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Natural Happiness Proteinmischung</t>
+          <t>Natural Happiness Nussmischung XL-Packung</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5012,34 +5012,34 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Natural Happiness Cashewkerne ungesalzen</t>
+          <t>Natural Happiness Raw Nussmischung</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5049,34 +5049,34 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>13,97 €/kg</t>
+          <t>14,33 €/kg</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
+          <t>Natural Happiness Raw Pekannusskerne</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5086,34 +5086,34 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>11,43 €/kg</t>
+          <t>23,90 €/kg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5123,34 +5123,34 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>13,97 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Nussmischung</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5160,34 +5160,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>14,33 €/kg</t>
+          <t>16,90 €/kg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Natural Happiness Pinienkerne</t>
+          <t>Natural Happiness Chiasamen</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5197,34 +5197,34 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>43,00 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Pekannusskerne</t>
+          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5234,24 +5234,24 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>23,90 €/kg</t>
+          <t>12,44 €/kg</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Mandeln</t>
+          <t>Natural Happiness Nuss-Fruchtmischung</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5271,34 +5271,34 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>10,60 €/kg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Walnüsse</t>
+          <t>Natural Happiness Proteinmischung</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5308,34 +5308,34 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>16,90 €/kg</t>
+          <t>11,63 €/kg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Natural Happiness Cashewkerne ungesalzen</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5345,34 +5345,34 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>9,93 €/kg</t>
+          <t>13,97 €/kg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Natural Happiness Frucht- und Nussmix Tropical</t>
+          <t>Natural Happiness Nussmischung XL-Packung</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>175 g</t>
+          <t>300 g</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5382,24 +5382,24 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>12,44 €/kg</t>
+          <t>13,30 €/kg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Natural Happiness Nuss-Fruchtmischung</t>
+          <t>Natural Happiness Raw Nussmischung</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5419,34 +5419,34 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>10,60 €/kg</t>
+          <t>14,33 €/kg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Natural Happiness Proteinmischung</t>
+          <t>Natural Happiness Raw Pekannusskerne</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5456,34 +5456,34 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>11,63 €/kg</t>
+          <t>23,90 €/kg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Natural Happiness Cashewkerne ungesalzen</t>
+          <t>Natural Happiness Raw Mandeln</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5493,34 +5493,34 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>13,97 €/kg</t>
+          <t>11,67 €/kg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2581335</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Natural Happiness Mandeln XL-Packung</t>
+          <t>Natural Happiness Raw Walnüsse</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5530,34 +5530,34 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>11,43 €/kg</t>
+          <t>16,90 €/kg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2581329</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Natural Happiness Walnüsse XL-Packung</t>
+          <t>Natural Happiness Chiasamen</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>300 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5567,256 +5567,256 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>13,97 €/kg</t>
+          <t>9,93 €/kg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2581020</t>
+          <t>3208235</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Nussmischung</t>
+          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>14,33 €/kg</t>
+          <t>61,27 zł/kg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2580351</t>
+          <t>3008365</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Natural Happiness Pinienkerne</t>
+          <t>Mieszanka orzechów Choco Moment</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>50 g</t>
+          <t>150 gramów | Różne warianty</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>43,00 €/kg</t>
+          <t>65,93 zł/kg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2576502</t>
+          <t>3218253</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Pekannusskerne</t>
+          <t>Chrupiące kuleczki Choco Moment</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>135 g | Różne warianty</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>11,90</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>23,90 €/kg</t>
+          <t>88,15 zł/kg</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2572372</t>
+          <t>3218252</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Mandeln</t>
+          <t>Chrupiące kuleczki Choco Moment</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>135 g | Różne warianty</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>11,90</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>11,27 €/kg</t>
+          <t>88,15 zł/kg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2572352</t>
+          <t>3208234</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Natural Happiness Raw Walnüsse</t>
+          <t>Choco Moment Czekoladowa mieszanka</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>16,90 €/kg</t>
+          <t>66,60 zł/kg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2572286</t>
+          <t>3009144</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Natural Happiness Chiasamen</t>
+          <t>Czekoladowe kulki Choco Moment</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>Różne warianty</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>11,19</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>9,93 €/kg</t>
+          <t>74,60 zł/kg</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3218253</t>
+          <t>3007718</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Chrupiące kuleczki Choco Moment</t>
+          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>135 g | Różne warianty</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5826,34 +5826,34 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>88,15 zł/kg</t>
+          <t>83,93 zł/kg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3218252</t>
+          <t>3006318</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Chrupiące kuleczki Choco Moment</t>
+          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>135 g | Różne warianty</t>
+          <t>260 gramów</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5863,34 +5863,34 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>88,15 zł/kg</t>
+          <t>43,42 zł/kg</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3208235</t>
+          <t>3005777</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mieszanka żurawiny i orzechów ziemnych Choco Moment</t>
+          <t>Rodzynki w polewie Choco Moment</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>260 g</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5900,34 +5900,34 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>68,60 zł/kg</t>
+          <t>38,27 zł/kg</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3208234</t>
+          <t>3000746</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Choco Moment Czekoladowa mieszanka</t>
+          <t>Niesolone orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Różne warianty</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5937,34 +5937,34 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>66,60 zł/kg</t>
+          <t>51,27 zł/kg</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3009144</t>
+          <t>2577347</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Czekoladowe kulki Choco Moment</t>
+          <t>Orzechy nerkowca Snacks of the World</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Różne warianty</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5974,34 +5974,34 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>74,60 zł/kg</t>
+          <t>51,27 zł/kg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3008365</t>
+          <t>3002918</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Choco Moment</t>
+          <t>Orzechy i rodzynki Snacks of the World</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150 gramów | Różne warianty</t>
+          <t>500 g</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>14,95</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6011,34 +6011,34 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>73,27 zł/kg</t>
+          <t>29,90 zł/kg</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3007718</t>
+          <t>3217980</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Orzechy w czekoladzie Choco Moment Edycja specjalna</t>
+          <t>Mieszanka orzechów Snacks of the World Chilli Cheese Spicy</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6048,34 +6048,34 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>83,93 zł/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3006318</t>
+          <t>3217979</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne w czekoladzie Choco Moment</t>
+          <t>Mieszanka proteinowa Snacks of the World</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>260 gramów</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6085,34 +6085,34 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>43,42 zł/kg</t>
+          <t>49,93 zł/kg</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3005777</t>
+          <t>3217978</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Rodzynki w polewie Choco Moment</t>
+          <t>Snacks of the World Flaming Hot Mix Spicy</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>260 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6122,34 +6122,34 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>38,27 zł/kg</t>
+          <t>39,80 zł/kg</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3002917</t>
+          <t>3217977</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World Solone</t>
+          <t>Mieszanka przekąsek Snacks of the World Solona</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>500 gramów</t>
+          <t>150 g | Różne warianty</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6159,34 +6159,34 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>59,80 zł/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3217980</t>
+          <t>3217976</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Snacks of the World Chilli Cheese Spicy</t>
+          <t>Pikantna mieszanka Snacks of the World</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>200 g | Różne warianty</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6196,34 +6196,34 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>49,75 zł/kg</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3217979</t>
+          <t>3209246</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Mieszanka proteinowa Snacks of the World</t>
+          <t>Mieszanka Chili i Papryka Snacks of the World Łagodna</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6233,34 +6233,34 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>49,93 zł/kg</t>
+          <t>39,80 zł/kg</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3217978</t>
+          <t>3206291</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Snacks of the World Flaming Hot Mix Spicy</t>
+          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6270,34 +6270,34 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>39,80 zł/kg</t>
+          <t>53,00 zł/kg</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3217977</t>
+          <t>3205496</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mieszanka przekąsek Snacks of the World Solona</t>
+          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>150 g | Różne warianty</t>
+          <t>500 gramów</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>29,90</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6307,34 +6307,34 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>59,80 zł/kg</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3217976</t>
+          <t>3013747</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Pikantna mieszanka Snacks of the World</t>
+          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>200 g | Różne warianty</t>
+          <t>225 gramów</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6344,34 +6344,34 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>49,75 zł/kg</t>
+          <t>44,22 zł/kg</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3209246</t>
+          <t>3012443</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Mieszanka Chili i Papryka Snacks of the World Łagodna</t>
+          <t>Mieszanka orzechów pekan Snacks of the World</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6381,34 +6381,34 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>39,80 zł/kg</t>
+          <t>49,75 zł/kg</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>3206291</t>
+          <t>3011147</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów o smaku Sriracha Snacks of the World</t>
+          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6418,34 +6418,34 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>53,00 zł/kg</t>
+          <t>42,45 zł/kg</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>3205496</t>
+          <t>3007643</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Niesolone orzechy nerkowca Snacks of the World Opakowanie XL</t>
+          <t>Mieszanka orzechów Snacks of the World</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>500 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6455,34 +6455,34 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>59,80 zł/kg</t>
+          <t>56,45 zł/kg</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>3013747</t>
+          <t>3005175</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami ziemnymi Sriracha Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów makadamia Snacks of the World</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>225 gramów</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6492,34 +6492,34 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>44,22 zł/kg</t>
+          <t>56,45 zł/kg</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>3012443</t>
+          <t>3002917</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów pekan Snacks of the World</t>
+          <t>Orzechy nerkowca Snacks of the World Solone</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>500 gramów</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>29,90</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6529,24 +6529,24 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>49,75 zł/kg</t>
+          <t>59,80 zł/kg</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>3011147</t>
+          <t>3002598</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Mieszanka nerkowców i orzeszków ziemnych Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6566,34 +6566,34 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>42,45 zł/kg</t>
+          <t>44,75 zł/kg</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>3007643</t>
+          <t>2581928</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Snacks of the World</t>
+          <t>Niesolone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6603,34 +6603,34 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>56,45 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>3005175</t>
+          <t>2581927</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów makadamia Snacks of the World</t>
+          <t>Solone orzeszki ziemne Snacks of the World</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>375 gramów</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6640,34 +6640,34 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>56,45 zł/kg</t>
+          <t>21,20 zł/kg</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3002598</t>
+          <t>2576500</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów nerkowca i orzeszków ziemnych z miodem Snacks of the World</t>
+          <t>Pikantna mieszanka Snacks of the World</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>400 gramów</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6677,34 +6677,34 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>44,75 zł/kg</t>
+          <t>28,13 zł/kg</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>3000746</t>
+          <t>2572356</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Niesolone orzechy nerkowca Snacks of the World</t>
+          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>250 gramów</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6714,34 +6714,34 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>57,00 zł/kg</t>
+          <t>39,80 zł/kg</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2581928</t>
+          <t>2572351</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Niesolone orzeszki ziemne Snacks of the World</t>
+          <t>Żurawina i orzechy Snacks of the World</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>200 gramów</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6751,34 +6751,34 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>49,75 zł/kg</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2581927</t>
+          <t>2572329</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Solone orzeszki ziemne Snacks of the World</t>
+          <t>Krakersy chilli Snacks of the World Pikantne</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>375 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6788,34 +6788,34 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>21,20 zł/kg</t>
+          <t>59,67 zł/kg</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2577347</t>
+          <t>3208739</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Snacks of the World</t>
+          <t>Mieszanka orzechów Natural Happiness Tropical</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>175 g</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6825,34 +6825,34 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>57,00 zł/kg</t>
+          <t>54,94 zł/kg</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2576500</t>
+          <t>3011072</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Pikantna mieszanka Snacks of the World</t>
+          <t>Mieszanka orzechów i owoców Natural Happiness</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>400 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6862,34 +6862,34 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>28,13 zł/kg</t>
+          <t>46,60 zł/kg</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2572356</t>
+          <t>3011014</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Kulki z orzeszkami w stylu japońskim Snacks of the World Mild</t>
+          <t>Mieszanka orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14,98</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6899,34 +6899,34 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>39,80 zł/kg</t>
+          <t>49,93 zł/kg</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2572351</t>
+          <t>3003625</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Żurawina i orzechy Snacks of the World</t>
+          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>200 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14,99</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6936,34 +6936,34 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>49,75 zł/kg</t>
+          <t>49,97 zł/kg</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2572329</t>
+          <t>3003153</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Krakersy chilli Snacks of the World Pikantne</t>
+          <t>Mieszanka orzechów Natural Happiness</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>150 gramów</t>
+          <t>300 gramów</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6973,34 +6973,34 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>59,67 zł/kg</t>
+          <t>56,63 zł/kg</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2572327</t>
+          <t>2581020</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Orzeszki ziemne wasabi Snacks of the World</t>
+          <t>Mieszanka orzechów Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>250 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7010,34 +7010,34 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>39,80 zł/kg</t>
+          <t>66,60 zł/kg</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3208739</t>
+          <t>2576502</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness Tropical</t>
+          <t>Orzechy pekan Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>175 g</t>
+          <t>100 gramów</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7047,24 +7047,24 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>54,94 zł/kg</t>
+          <t>89,90 zł/kg</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>3011072</t>
+          <t>2572372</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów i owoców Natural Happiness</t>
+          <t>Migdały Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7084,34 +7084,34 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>46,60 zł/kg</t>
+          <t>53,27 zł/kg</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>3011014</t>
+          <t>2572352</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Mieszanka orzechów Natural Happiness</t>
+          <t>Orzechy włoskie Natural Happiness Raw</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>100 gramów</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7121,34 +7121,34 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>49,93 zł/kg</t>
+          <t>59,50 zł/kg</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>3003625</t>
+          <t>2572286</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Orzechy nerkowca Natural Happiness Bez soli</t>
+          <t>Nasiona chia Natural Happiness</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>300 gramów</t>
+          <t>150 gramów</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7158,197 +7158,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>49,97 zł/kg</t>
+          <t>43,27 zł/kg</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2580351</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Orzeszki pinii Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>50 gramów</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>159,00 zł/kg</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2576502</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Orzechy pekan Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>100 gramów</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>89,90 zł/kg</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2572372</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Migdały Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>53,27 zł/kg</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2572352</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Orzechy włoskie Natural Happiness Raw</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>100 gramów</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>59,50 zł/kg</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2572286</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Nasiona chia Natural Happiness</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>150 gramów</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>pl</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>43,27 zł/kg</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
+          <t>2025-12-09</t>
         </is>
       </c>
     </row>
